--- a/legislator/property/output/normal/吳育昇_2013-11-22_財產申報表_tmp88481.xlsx
+++ b/legislator/property/output/normal/吳育昇_2013-11-22_財產申報表_tmp88481.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="133">
   <si>
     <t>土地坐落</t>
   </si>
@@ -272,6 +272,15 @@
     <t>total</t>
   </si>
   <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>legislator_name</t>
+  </si>
+  <si>
+    <t>legislator_id</t>
+  </si>
+  <si>
     <t>南亞塑膠工業股份有限公 司</t>
   </si>
   <si>
@@ -327,6 +336,9 @@
   </si>
   <si>
     <t>5，000</t>
+  </si>
+  <si>
+    <t>2013-11-22</t>
   </si>
   <si>
     <t>名稱</t>
@@ -1837,13 +1849,13 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>77</v>
       </c>
@@ -1862,13 +1874,22 @@
       <c r="G1" s="1" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1">
         <v>89</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>18</v>
@@ -1885,13 +1906,22 @@
       <c r="G2" s="2">
         <v>84080</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="H2" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" s="2">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1">
         <v>90</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>18</v>
@@ -1908,13 +1938,22 @@
       <c r="G3" s="2">
         <v>1980</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="H3" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J3" s="2">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1">
         <v>91</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>18</v>
@@ -1931,13 +1970,22 @@
       <c r="G4" s="2">
         <v>210550</v>
       </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="H4" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J4" s="2">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1">
         <v>92</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>18</v>
@@ -1954,13 +2002,22 @@
       <c r="G5" s="2">
         <v>269240</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J5" s="2">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1">
         <v>93</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>18</v>
@@ -1977,13 +2034,22 @@
       <c r="G6" s="2">
         <v>61880</v>
       </c>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="H6" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J6" s="2">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1">
         <v>94</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>18</v>
@@ -2000,13 +2066,22 @@
       <c r="G7" s="2">
         <v>5730</v>
       </c>
-    </row>
-    <row r="8" spans="1:7">
+      <c r="H7" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J7" s="2">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1">
         <v>95</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>18</v>
@@ -2023,13 +2098,22 @@
       <c r="G8" s="2">
         <v>3310</v>
       </c>
-    </row>
-    <row r="9" spans="1:7">
+      <c r="H8" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J8" s="2">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1">
         <v>96</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>18</v>
@@ -2046,13 +2130,22 @@
       <c r="G9" s="2">
         <v>14530</v>
       </c>
-    </row>
-    <row r="10" spans="1:7">
+      <c r="H9" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J9" s="2">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1">
         <v>98</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>18</v>
@@ -2069,13 +2162,22 @@
       <c r="G10" s="2">
         <v>46860</v>
       </c>
-    </row>
-    <row r="11" spans="1:7">
+      <c r="H10" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J10" s="2">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="1">
         <v>99</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>18</v>
@@ -2092,16 +2194,25 @@
       <c r="G11" s="2">
         <v>690</v>
       </c>
-    </row>
-    <row r="12" spans="1:7">
+      <c r="H11" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J11" s="2">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="1">
         <v>100</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="D12" s="2">
         <v>9435</v>
@@ -2115,13 +2226,22 @@
       <c r="G12" s="2">
         <v>94350</v>
       </c>
-    </row>
-    <row r="13" spans="1:7">
+      <c r="H12" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J12" s="2">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="1">
         <v>101</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>18</v>
@@ -2138,13 +2258,22 @@
       <c r="G13" s="2">
         <v>9250</v>
       </c>
-    </row>
-    <row r="14" spans="1:7">
+      <c r="H13" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J13" s="2">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="1">
         <v>102</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>17</v>
@@ -2161,13 +2290,22 @@
       <c r="G14" s="2">
         <v>520</v>
       </c>
-    </row>
-    <row r="15" spans="1:7">
+      <c r="H14" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J14" s="2">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1">
         <v>103</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>18</v>
@@ -2184,19 +2322,28 @@
       <c r="G15" s="2">
         <v>1000000</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="H15" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J15" s="2">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1">
         <v>104</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="E16" s="2">
         <v>10</v>
@@ -2207,13 +2354,22 @@
       <c r="G16" s="2">
         <v>50000</v>
       </c>
-    </row>
-    <row r="17" spans="1:7">
+      <c r="H16" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J16" s="2">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1">
         <v>105</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>18</v>
@@ -2230,13 +2386,22 @@
       <c r="G17" s="2">
         <v>50000</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="H17" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J17" s="2">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1">
         <v>106</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>18</v>
@@ -2252,6 +2417,15 @@
       </c>
       <c r="G18" s="2">
         <v>301000</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J18" s="2">
+        <v>1322</v>
       </c>
     </row>
   </sheetData>
@@ -2269,22 +2443,22 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>50</v>
@@ -2295,13 +2469,13 @@
         <v>116</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>76</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="E2" s="2">
         <v>60.36</v>
@@ -2310,7 +2484,7 @@
         <v>24.11</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="H2" s="2">
         <v>43312.03</v>
@@ -2321,13 +2495,13 @@
         <v>117</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="E3" s="2">
         <v>8.06</v>
@@ -2336,7 +2510,7 @@
         <v>127.29</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="H3" s="2">
         <v>30534.54</v>
@@ -2347,13 +2521,13 @@
         <v>118</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="E4" s="2">
         <v>85.83</v>
@@ -2362,7 +2536,7 @@
         <v>11.77</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="H4" s="2">
         <v>40732.03</v>
@@ -2373,13 +2547,13 @@
         <v>119</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="E5" s="2">
         <v>220.44</v>
@@ -2388,7 +2562,7 @@
         <v>33.38</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="H5" s="2">
         <v>221490.47</v>
@@ -2399,13 +2573,13 @@
         <v>120</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="E6" s="2">
         <v>368.49</v>
@@ -2414,7 +2588,7 @@
         <v>22.2</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="H6" s="2">
         <v>246237.73</v>
@@ -2425,13 +2599,13 @@
         <v>121</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="E7" s="2">
         <v>439.67</v>
@@ -2440,7 +2614,7 @@
         <v>17.43</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="H7" s="2">
         <v>230670.31</v>
@@ -2461,13 +2635,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -2475,10 +2649,10 @@
         <v>136</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>18</v>
@@ -2489,10 +2663,10 @@
         <v>137</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>18</v>
@@ -2503,10 +2677,10 @@
         <v>138</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>18</v>
@@ -2517,10 +2691,10 @@
         <v>139</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>17</v>

--- a/legislator/property/output/normal/吳育昇_2013-11-22_財產申報表_tmp88481.xlsx
+++ b/legislator/property/output/normal/吳育昇_2013-11-22_財產申報表_tmp88481.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="135">
   <si>
     <t>土地坐落</t>
   </si>
@@ -272,6 +272,9 @@
     <t>total</t>
   </si>
   <si>
+    <t>property_category</t>
+  </si>
+  <si>
     <t>date</t>
   </si>
   <si>
@@ -281,10 +284,10 @@
     <t>legislator_id</t>
   </si>
   <si>
-    <t>南亞塑膠工業股份有限公 司</t>
-  </si>
-  <si>
-    <t>台灣積體電路製造股份有 限公司</t>
+    <t>南亞塑膠工業股份有限公司</t>
+  </si>
+  <si>
+    <t>台灣積體電路製造股份有限公司</t>
   </si>
   <si>
     <t>雅新實業股份有限公司</t>
@@ -299,13 +302,13 @@
     <t>亞洲水泥股份有限公司</t>
   </si>
   <si>
-    <t>永大機電工業股份有限公 司</t>
+    <t>永大機電工業股份有限公司</t>
   </si>
   <si>
     <t>中國鋼鐵股份有限公司</t>
   </si>
   <si>
-    <t>鴻海精密工業股份有限公 司</t>
+    <t>鴻海精密工業股份有限公司</t>
   </si>
   <si>
     <t>大同股份有限公司</t>
@@ -317,7 +320,7 @@
     <t>威健實業股份有限公司</t>
   </si>
   <si>
-    <t>中國電視事業股份有限公 司</t>
+    <t>中國電視事業股份有限公司</t>
   </si>
   <si>
     <t>聯格科技</t>
@@ -326,7 +329,7 @@
     <t>潤泰全球股份有限公司</t>
   </si>
   <si>
-    <t>潤泰創新國際股份有限公 司</t>
+    <t>潤泰創新國際股份有限公司</t>
   </si>
   <si>
     <t>耕興股份有限公司.</t>
@@ -335,7 +338,10 @@
     <t>劉媞娟</t>
   </si>
   <si>
-    <t>5，000</t>
+    <t>5000</t>
+  </si>
+  <si>
+    <t>stock</t>
   </si>
   <si>
     <t>2013-11-22</t>
@@ -1849,13 +1855,13 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>77</v>
       </c>
@@ -1883,13 +1889,16 @@
       <c r="J1" s="1" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="K1" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1">
         <v>89</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>18</v>
@@ -1907,21 +1916,24 @@
         <v>84080</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J2" s="2">
+        <v>107</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K2" s="2">
         <v>1322</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:11">
       <c r="A3" s="1">
         <v>90</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>18</v>
@@ -1939,21 +1951,24 @@
         <v>1980</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J3" s="2">
+        <v>107</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K3" s="2">
         <v>1322</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:11">
       <c r="A4" s="1">
         <v>91</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>18</v>
@@ -1971,21 +1986,24 @@
         <v>210550</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J4" s="2">
+        <v>107</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K4" s="2">
         <v>1322</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:11">
       <c r="A5" s="1">
         <v>92</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>18</v>
@@ -2003,21 +2021,24 @@
         <v>269240</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J5" s="2">
+        <v>107</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K5" s="2">
         <v>1322</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:11">
       <c r="A6" s="1">
         <v>93</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>18</v>
@@ -2035,21 +2056,24 @@
         <v>61880</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J6" s="2">
+        <v>107</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K6" s="2">
         <v>1322</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:11">
       <c r="A7" s="1">
         <v>94</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>18</v>
@@ -2067,21 +2091,24 @@
         <v>5730</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J7" s="2">
+        <v>107</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K7" s="2">
         <v>1322</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:11">
       <c r="A8" s="1">
         <v>95</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>18</v>
@@ -2099,21 +2126,24 @@
         <v>3310</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J8" s="2">
+        <v>107</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K8" s="2">
         <v>1322</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:11">
       <c r="A9" s="1">
         <v>96</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>18</v>
@@ -2131,21 +2161,24 @@
         <v>14530</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J9" s="2">
+        <v>107</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K9" s="2">
         <v>1322</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:11">
       <c r="A10" s="1">
         <v>98</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>18</v>
@@ -2163,21 +2196,24 @@
         <v>46860</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J10" s="2">
+        <v>107</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K10" s="2">
         <v>1322</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:11">
       <c r="A11" s="1">
         <v>99</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>18</v>
@@ -2195,24 +2231,27 @@
         <v>690</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J11" s="2">
+        <v>107</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K11" s="2">
         <v>1322</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:11">
       <c r="A12" s="1">
         <v>100</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D12" s="2">
         <v>9435</v>
@@ -2227,21 +2266,24 @@
         <v>94350</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J12" s="2">
+        <v>107</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K12" s="2">
         <v>1322</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:11">
       <c r="A13" s="1">
         <v>101</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>18</v>
@@ -2259,21 +2301,24 @@
         <v>9250</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J13" s="2">
+        <v>107</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K13" s="2">
         <v>1322</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:11">
       <c r="A14" s="1">
         <v>102</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>17</v>
@@ -2291,21 +2336,24 @@
         <v>520</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J14" s="2">
+        <v>107</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K14" s="2">
         <v>1322</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:11">
       <c r="A15" s="1">
         <v>103</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>18</v>
@@ -2323,27 +2371,30 @@
         <v>1000000</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J15" s="2">
+        <v>107</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K15" s="2">
         <v>1322</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:11">
       <c r="A16" s="1">
         <v>104</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E16" s="2">
         <v>10</v>
@@ -2355,21 +2406,24 @@
         <v>50000</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J16" s="2">
+        <v>107</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K16" s="2">
         <v>1322</v>
       </c>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:11">
       <c r="A17" s="1">
         <v>105</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>18</v>
@@ -2387,21 +2441,24 @@
         <v>50000</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J17" s="2">
+        <v>107</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K17" s="2">
         <v>1322</v>
       </c>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:11">
       <c r="A18" s="1">
         <v>106</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>18</v>
@@ -2419,12 +2476,15 @@
         <v>301000</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J18" s="2">
+        <v>107</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K18" s="2">
         <v>1322</v>
       </c>
     </row>
@@ -2443,22 +2503,22 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>50</v>
@@ -2469,13 +2529,13 @@
         <v>116</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>76</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E2" s="2">
         <v>60.36</v>
@@ -2484,7 +2544,7 @@
         <v>24.11</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="H2" s="2">
         <v>43312.03</v>
@@ -2495,13 +2555,13 @@
         <v>117</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E3" s="2">
         <v>8.06</v>
@@ -2510,7 +2570,7 @@
         <v>127.29</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="H3" s="2">
         <v>30534.54</v>
@@ -2521,13 +2581,13 @@
         <v>118</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E4" s="2">
         <v>85.83</v>
@@ -2536,7 +2596,7 @@
         <v>11.77</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="H4" s="2">
         <v>40732.03</v>
@@ -2547,13 +2607,13 @@
         <v>119</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E5" s="2">
         <v>220.44</v>
@@ -2562,7 +2622,7 @@
         <v>33.38</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="H5" s="2">
         <v>221490.47</v>
@@ -2573,13 +2633,13 @@
         <v>120</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E6" s="2">
         <v>368.49</v>
@@ -2588,7 +2648,7 @@
         <v>22.2</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="H6" s="2">
         <v>246237.73</v>
@@ -2599,13 +2659,13 @@
         <v>121</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E7" s="2">
         <v>439.67</v>
@@ -2614,7 +2674,7 @@
         <v>17.43</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="H7" s="2">
         <v>230670.31</v>
@@ -2635,13 +2695,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -2649,10 +2709,10 @@
         <v>136</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>18</v>
@@ -2663,10 +2723,10 @@
         <v>137</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>18</v>
@@ -2677,10 +2737,10 @@
         <v>138</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>18</v>
@@ -2691,10 +2751,10 @@
         <v>139</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>17</v>

--- a/legislator/property/output/normal/吳育昇_2013-11-22_財產申報表_tmp88481.xlsx
+++ b/legislator/property/output/normal/吳育昇_2013-11-22_財產申報表_tmp88481.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="140">
   <si>
     <t>土地坐落</t>
   </si>
@@ -275,6 +275,9 @@
     <t>property_category</t>
   </si>
   <si>
+    <t>category</t>
+  </si>
+  <si>
     <t>date</t>
   </si>
   <si>
@@ -284,6 +287,12 @@
     <t>legislator_id</t>
   </si>
   <si>
+    <t>source_file</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
     <t>南亞塑膠工業股份有限公司</t>
   </si>
   <si>
@@ -344,7 +353,13 @@
     <t>stock</t>
   </si>
   <si>
+    <t>normal</t>
+  </si>
+  <si>
     <t>2013-11-22</t>
+  </si>
+  <si>
+    <t>tmp88481</t>
   </si>
   <si>
     <t>名稱</t>
@@ -1855,13 +1870,13 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K18"/>
+  <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
         <v>77</v>
       </c>
@@ -1892,13 +1907,22 @@
       <c r="K1" s="1" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="L1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>89</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>18</v>
@@ -1916,24 +1940,33 @@
         <v>84080</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="J2" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="K2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="K2" s="2">
+      <c r="L2" s="2">
         <v>1322</v>
       </c>
-    </row>
-    <row r="3" spans="1:11">
+      <c r="M2" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="N2" s="2">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>90</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>18</v>
@@ -1951,24 +1984,33 @@
         <v>1980</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="J3" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="K3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="K3" s="2">
+      <c r="L3" s="2">
         <v>1322</v>
       </c>
-    </row>
-    <row r="4" spans="1:11">
+      <c r="M3" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="N3" s="2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" s="1">
         <v>91</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>18</v>
@@ -1986,24 +2028,33 @@
         <v>210550</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="J4" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="K4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="K4" s="2">
+      <c r="L4" s="2">
         <v>1322</v>
       </c>
-    </row>
-    <row r="5" spans="1:11">
+      <c r="M4" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="N4" s="2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5" s="1">
         <v>92</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>18</v>
@@ -2021,24 +2072,33 @@
         <v>269240</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="J5" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="K5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="K5" s="2">
+      <c r="L5" s="2">
         <v>1322</v>
       </c>
-    </row>
-    <row r="6" spans="1:11">
+      <c r="M5" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="N5" s="2">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6" s="1">
         <v>93</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>18</v>
@@ -2056,24 +2116,33 @@
         <v>61880</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="J6" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="K6" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="K6" s="2">
+      <c r="L6" s="2">
         <v>1322</v>
       </c>
-    </row>
-    <row r="7" spans="1:11">
+      <c r="M6" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="N6" s="2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
       <c r="A7" s="1">
         <v>94</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>18</v>
@@ -2091,24 +2160,33 @@
         <v>5730</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="J7" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="K7" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>1322</v>
       </c>
-    </row>
-    <row r="8" spans="1:11">
+      <c r="M7" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="N7" s="2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
       <c r="A8" s="1">
         <v>95</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>18</v>
@@ -2126,24 +2204,33 @@
         <v>3310</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="J8" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="K8" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="K8" s="2">
+      <c r="L8" s="2">
         <v>1322</v>
       </c>
-    </row>
-    <row r="9" spans="1:11">
+      <c r="M8" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="N8" s="2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
       <c r="A9" s="1">
         <v>96</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>18</v>
@@ -2161,24 +2248,33 @@
         <v>14530</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="J9" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="K9" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="K9" s="2">
+      <c r="L9" s="2">
         <v>1322</v>
       </c>
-    </row>
-    <row r="10" spans="1:11">
+      <c r="M9" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="N9" s="2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
       <c r="A10" s="1">
         <v>98</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>18</v>
@@ -2196,24 +2292,33 @@
         <v>46860</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="J10" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="K10" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="K10" s="2">
+      <c r="L10" s="2">
         <v>1322</v>
       </c>
-    </row>
-    <row r="11" spans="1:11">
+      <c r="M10" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="N10" s="2">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
       <c r="A11" s="1">
         <v>99</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>18</v>
@@ -2231,27 +2336,36 @@
         <v>690</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="J11" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="K11" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="K11" s="2">
+      <c r="L11" s="2">
         <v>1322</v>
       </c>
-    </row>
-    <row r="12" spans="1:11">
+      <c r="M11" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="N11" s="2">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
       <c r="A12" s="1">
         <v>100</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="D12" s="2">
         <v>9435</v>
@@ -2266,24 +2380,33 @@
         <v>94350</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="J12" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="K12" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="K12" s="2">
+      <c r="L12" s="2">
         <v>1322</v>
       </c>
-    </row>
-    <row r="13" spans="1:11">
+      <c r="M12" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="N12" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
       <c r="A13" s="1">
         <v>101</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>18</v>
@@ -2301,24 +2424,33 @@
         <v>9250</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="J13" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="K13" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="K13" s="2">
+      <c r="L13" s="2">
         <v>1322</v>
       </c>
-    </row>
-    <row r="14" spans="1:11">
+      <c r="M13" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="N13" s="2">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
       <c r="A14" s="1">
         <v>102</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>17</v>
@@ -2336,24 +2468,33 @@
         <v>520</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="J14" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="K14" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="K14" s="2">
+      <c r="L14" s="2">
         <v>1322</v>
       </c>
-    </row>
-    <row r="15" spans="1:11">
+      <c r="M14" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="N14" s="2">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
       <c r="A15" s="1">
         <v>103</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>18</v>
@@ -2371,30 +2512,39 @@
         <v>1000000</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="J15" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="K15" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="K15" s="2">
+      <c r="L15" s="2">
         <v>1322</v>
       </c>
-    </row>
-    <row r="16" spans="1:11">
+      <c r="M15" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="N15" s="2">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
       <c r="A16" s="1">
         <v>104</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="E16" s="2">
         <v>10</v>
@@ -2406,24 +2556,33 @@
         <v>50000</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="J16" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="K16" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="K16" s="2">
+      <c r="L16" s="2">
         <v>1322</v>
       </c>
-    </row>
-    <row r="17" spans="1:11">
+      <c r="M16" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="N16" s="2">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>105</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>18</v>
@@ -2441,24 +2600,33 @@
         <v>50000</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="J17" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="K17" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="K17" s="2">
+      <c r="L17" s="2">
         <v>1322</v>
       </c>
-    </row>
-    <row r="18" spans="1:11">
+      <c r="M17" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="N17" s="2">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>106</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>18</v>
@@ -2476,16 +2644,25 @@
         <v>301000</v>
       </c>
       <c r="H18" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L18" s="2">
+        <v>1322</v>
+      </c>
+      <c r="M18" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="N18" s="2">
         <v>106</v>
-      </c>
-      <c r="I18" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="J18" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="K18" s="2">
-        <v>1322</v>
       </c>
     </row>
   </sheetData>
@@ -2503,22 +2680,22 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>50</v>
@@ -2529,13 +2706,13 @@
         <v>116</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>76</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="E2" s="2">
         <v>60.36</v>
@@ -2544,7 +2721,7 @@
         <v>24.11</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="H2" s="2">
         <v>43312.03</v>
@@ -2555,13 +2732,13 @@
         <v>117</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="E3" s="2">
         <v>8.06</v>
@@ -2570,7 +2747,7 @@
         <v>127.29</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="H3" s="2">
         <v>30534.54</v>
@@ -2581,13 +2758,13 @@
         <v>118</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="E4" s="2">
         <v>85.83</v>
@@ -2596,7 +2773,7 @@
         <v>11.77</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="H4" s="2">
         <v>40732.03</v>
@@ -2607,13 +2784,13 @@
         <v>119</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="E5" s="2">
         <v>220.44</v>
@@ -2622,7 +2799,7 @@
         <v>33.38</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="H5" s="2">
         <v>221490.47</v>
@@ -2633,13 +2810,13 @@
         <v>120</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="E6" s="2">
         <v>368.49</v>
@@ -2648,7 +2825,7 @@
         <v>22.2</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="H6" s="2">
         <v>246237.73</v>
@@ -2659,13 +2836,13 @@
         <v>121</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="E7" s="2">
         <v>439.67</v>
@@ -2674,7 +2851,7 @@
         <v>17.43</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="H7" s="2">
         <v>230670.31</v>
@@ -2695,13 +2872,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -2709,10 +2886,10 @@
         <v>136</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>18</v>
@@ -2723,10 +2900,10 @@
         <v>137</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>18</v>
@@ -2737,10 +2914,10 @@
         <v>138</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>18</v>
@@ -2751,10 +2928,10 @@
         <v>139</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>17</v>

--- a/legislator/property/output/normal/吳育昇_2013-11-22_財產申報表_tmp88481.xlsx
+++ b/legislator/property/output/normal/吳育昇_2013-11-22_財產申報表_tmp88481.xlsx
@@ -21,9 +21,114 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="140">
-  <si>
-    <t>土地坐落</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="141">
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>area</t>
+  </si>
+  <si>
+    <t>share_portion</t>
+  </si>
+  <si>
+    <t>owner</t>
+  </si>
+  <si>
+    <t>register_date</t>
+  </si>
+  <si>
+    <t>register_reason</t>
+  </si>
+  <si>
+    <t>acquire_value</t>
+  </si>
+  <si>
+    <t>property_category</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>legislator_name</t>
+  </si>
+  <si>
+    <t>legislator_id</t>
+  </si>
+  <si>
+    <t>source_file</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
+    <t>臺北市大安區通化段一小段02300001地號</t>
+  </si>
+  <si>
+    <t>臺北市大安區通化段一小段02300000地號</t>
+  </si>
+  <si>
+    <t>新北市淡水區海天段06420000地號</t>
+  </si>
+  <si>
+    <t>新北市淡水區海天段06530000地號</t>
+  </si>
+  <si>
+    <t>臺北市大安區懷生段三小段04960000地號</t>
+  </si>
+  <si>
+    <t>10000分之34</t>
+  </si>
+  <si>
+    <t>26590分之90</t>
+  </si>
+  <si>
+    <t>1000000分之7721</t>
+  </si>
+  <si>
+    <t>1000000分之60</t>
+  </si>
+  <si>
+    <t>5分之1</t>
+  </si>
+  <si>
+    <t>吳育昇</t>
+  </si>
+  <si>
+    <t>劉娟娟</t>
+  </si>
+  <si>
+    <t>76年01月01日</t>
+  </si>
+  <si>
+    <t>95年03月15日</t>
+  </si>
+  <si>
+    <t>85年01月19日</t>
+  </si>
+  <si>
+    <t>買賣</t>
+  </si>
+  <si>
+    <t>(超過五年）</t>
+  </si>
+  <si>
+    <t>land</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>2013-11-22</t>
+  </si>
+  <si>
+    <t>tmp88481</t>
+  </si>
+  <si>
+    <t>建物標示</t>
   </si>
   <si>
     <t>面積（平方公尺）</t>
@@ -44,103 +149,49 @@
     <t>取得價額</t>
   </si>
   <si>
-    <t>臺北市大安區通化段一小段 0230-0001 地號</t>
-  </si>
-  <si>
-    <t>臺北市大安區通化段一小段 0230-0000 地號</t>
-  </si>
-  <si>
-    <t>新北市淡水區海天段0642-0000 地號</t>
-  </si>
-  <si>
-    <t>新北市淡水區海天段0653-0000 地號</t>
-  </si>
-  <si>
-    <t>臺北市大安區懷生段三小段 0496-0000 地號</t>
-  </si>
-  <si>
-    <t>10000分之 34</t>
-  </si>
-  <si>
-    <t>26590分之 90</t>
-  </si>
-  <si>
-    <t>1000000 分 之 7721</t>
-  </si>
-  <si>
-    <t>1000000 分 之60</t>
-  </si>
-  <si>
-    <t>5分之1</t>
-  </si>
-  <si>
-    <t>吳育昇</t>
-  </si>
-  <si>
-    <t>劉娟娟</t>
-  </si>
-  <si>
-    <t>76年01月 01日</t>
-  </si>
-  <si>
-    <t>95年03月 15日</t>
-  </si>
-  <si>
-    <t>85年01月 19日</t>
-  </si>
-  <si>
-    <t>買賣</t>
-  </si>
-  <si>
-    <t>(超過五年）</t>
-  </si>
-  <si>
-    <t>建物標示</t>
-  </si>
-  <si>
-    <t>臺北市大安區懷生段三小段 02158-000建號(陽台5.05平方 公尺，露台7.57平方公尺）</t>
-  </si>
-  <si>
-    <t>臺北市大安區通化段一小段 01814-000建號(陽台16.18平 方公尺）</t>
-  </si>
-  <si>
-    <t>新北rh_淡水區海天段01616-000 建號</t>
-  </si>
-  <si>
-    <t>新北市淡水區海天段01759-000 建號</t>
-  </si>
-  <si>
-    <t>新北市淡水區海天段01760-000 建號</t>
-  </si>
-  <si>
-    <t>新北市淡水區海天段01761 -000</t>
-  </si>
-  <si>
-    <t>新北市淡水區海天段01762-000 建號</t>
-  </si>
-  <si>
-    <t>新北市淡水區海天段01769-000 建號</t>
-  </si>
-  <si>
-    <t>新北市淡水區海天段01770-000 建號</t>
-  </si>
-  <si>
-    <t>新北市淡水區海天段01825-000 建號</t>
-  </si>
-  <si>
-    <t>新北市淡水區海天段01826-000 建號</t>
+    <t>臺北市大安區懷生段三小段02158000建號(陽台5.05平方公尺露台7.57平方公尺）</t>
+  </si>
+  <si>
+    <t>臺北市大安區通化段一小段01814000建號(陽台16.18平方公尺）</t>
+  </si>
+  <si>
+    <t>新北rh淡水區海天段01616000建號</t>
+  </si>
+  <si>
+    <t>新北市淡水區海天段01759000建號</t>
+  </si>
+  <si>
+    <t>新北市淡水區海天段01760000建號</t>
+  </si>
+  <si>
+    <t>新北市淡水區海天段01761000</t>
+  </si>
+  <si>
+    <t>新北市淡水區海天段01762000建號</t>
+  </si>
+  <si>
+    <t>新北市淡水區海天段01769000建號</t>
+  </si>
+  <si>
+    <t>新北市淡水區海天段01770000建號</t>
+  </si>
+  <si>
+    <t>新北市淡水區海天段01825000建號</t>
+  </si>
+  <si>
+    <t>新北市淡水區海天段01826000建號</t>
   </si>
   <si>
     <t>全部</t>
   </si>
   <si>
-    <t>100000 分 之303</t>
-  </si>
-  <si>
-    <t>100000 分</t>
-  </si>
-  <si>
-    <t>100000 之303</t>
+    <t>100000分之303</t>
+  </si>
+  <si>
+    <t>100000分</t>
+  </si>
+  <si>
+    <t>100000之303</t>
   </si>
   <si>
     <t>分</t>
@@ -164,10 +215,10 @@
     <t>LEXUS</t>
   </si>
   <si>
-    <t>93年07月 20日</t>
-  </si>
-  <si>
-    <t>101 年 02 月17曰</t>
+    <t>93年07月20日</t>
+  </si>
+  <si>
+    <t>101年02月17曰</t>
   </si>
   <si>
     <t>幣別</t>
@@ -185,7 +236,7 @@
     <t>種類</t>
   </si>
   <si>
-    <t>台北富邦商業銀行信義分 行</t>
+    <t>台北富邦商業銀行信義分行</t>
   </si>
   <si>
     <t>台新國際商業銀行</t>
@@ -215,7 +266,7 @@
     <t>國泰世華商業銀行</t>
   </si>
   <si>
-    <t>台北富邦商業銀行_</t>
+    <t>台北富邦商業銀行</t>
   </si>
   <si>
     <t>臺灣銀行</t>
@@ -224,9 +275,6 @@
     <t>安泰商業銀行</t>
   </si>
   <si>
-    <t>台北富邦商業銀行</t>
-  </si>
-  <si>
     <t>活期存款</t>
   </si>
   <si>
@@ -239,9 +287,6 @@
     <t>新臺¥</t>
   </si>
   <si>
-    <t>新臺幣'</t>
-  </si>
-  <si>
     <t>劉娟娟.</t>
   </si>
   <si>
@@ -254,12 +299,6 @@
     <t>吳〇庭</t>
   </si>
   <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>owner</t>
-  </si>
-  <si>
     <t>quantity</t>
   </si>
   <si>
@@ -272,27 +311,6 @@
     <t>total</t>
   </si>
   <si>
-    <t>property_category</t>
-  </si>
-  <si>
-    <t>category</t>
-  </si>
-  <si>
-    <t>date</t>
-  </si>
-  <si>
-    <t>legislator_name</t>
-  </si>
-  <si>
-    <t>legislator_id</t>
-  </si>
-  <si>
-    <t>source_file</t>
-  </si>
-  <si>
-    <t>index</t>
-  </si>
-  <si>
     <t>南亞塑膠工業股份有限公司</t>
   </si>
   <si>
@@ -353,15 +371,6 @@
     <t>stock</t>
   </si>
   <si>
-    <t>normal</t>
-  </si>
-  <si>
-    <t>2013-11-22</t>
-  </si>
-  <si>
-    <t>tmp88481</t>
-  </si>
-  <si>
     <t>名稱</t>
   </si>
   <si>
@@ -386,25 +395,19 @@
     <t>富達歐洲</t>
   </si>
   <si>
-    <t>富蘭克林坦伯頓 亞洲成長</t>
-  </si>
-  <si>
-    <t>富蘭克林坦伯頓 生技領航</t>
-  </si>
-  <si>
-    <t>富蘭克林美國中 小型公司增長</t>
+    <t>富蘭克林坦伯頓亞洲成長</t>
+  </si>
+  <si>
+    <t>富蘭克林坦伯頓生技領航</t>
+  </si>
+  <si>
+    <t>富蘭克林美國中小型公司增長</t>
   </si>
   <si>
     <t>吳◦庭</t>
   </si>
   <si>
     <t>吳◦學</t>
-  </si>
-  <si>
-    <t>台北富邦商業 銀行</t>
-  </si>
-  <si>
-    <t>國泰世華商業 銀行</t>
   </si>
   <si>
     <t>美金</t>
@@ -799,13 +802,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:O6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:15">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -827,135 +830,261 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>14</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C2" s="2">
         <v>1808</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>30</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M2" s="2">
+        <v>1322</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="O2" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>15</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C3" s="2">
         <v>2659</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>30</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M3" s="2">
+        <v>1322</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="O3" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>16</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C4" s="2">
         <v>4324.24</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>30</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M4" s="2">
+        <v>1322</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="O4" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>17</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C5" s="2">
         <v>3083.12</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>30</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M5" s="2">
+        <v>1322</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="O5" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>18</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C6" s="2">
         <v>117</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="E6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M6" s="2">
+        <v>1322</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="O6" s="2">
         <v>18</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -973,25 +1102,25 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>37</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>38</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>4</v>
+        <v>39</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="I1" s="1"/>
     </row>
@@ -1000,25 +1129,25 @@
         <v>23</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="C2" s="2">
         <v>62.37</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="I2" s="2"/>
     </row>
@@ -1027,25 +1156,25 @@
         <v>24</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="C3" s="2">
         <v>131.41</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="I3" s="2"/>
     </row>
@@ -1054,25 +1183,25 @@
         <v>25</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="C4" s="2">
         <v>163.72</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="I4" s="2"/>
     </row>
@@ -1081,25 +1210,25 @@
         <v>26</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="C5" s="2">
         <v>88.29</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="I5" s="2"/>
     </row>
@@ -1108,25 +1237,25 @@
         <v>27</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="C6" s="2">
         <v>36.83</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="I6" s="2"/>
     </row>
@@ -1135,25 +1264,25 @@
         <v>28</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="C7" s="2">
         <v>51.15</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="I7" s="2"/>
     </row>
@@ -1162,28 +1291,28 @@
         <v>31</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="C8" s="2">
         <v>186.48</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -1191,28 +1320,28 @@
         <v>32</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="C9" s="2">
         <v>480.06</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -1220,28 +1349,28 @@
         <v>33</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="C10" s="2">
         <v>547.61</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -1249,28 +1378,28 @@
         <v>34</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="C11" s="2">
         <v>1132.07</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -1278,28 +1407,28 @@
         <v>35</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="C12" s="2">
         <v>605.16</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -1317,22 +1446,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>39</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1340,19 +1469,19 @@
         <v>45</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="C2" s="2">
         <v>1275</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="G2" s="2">
         <v>376000</v>
@@ -1363,19 +1492,19 @@
         <v>46</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="C3" s="2">
         <v>1798</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="G3" s="2">
         <v>1192000</v>
@@ -1396,13 +1525,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1410,10 +1539,10 @@
         <v>56</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D2" s="2">
         <v>80000</v>
@@ -1424,10 +1553,10 @@
         <v>57</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D3" s="2">
         <v>70000</v>
@@ -1448,19 +1577,19 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -1468,16 +1597,16 @@
         <v>62</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>68</v>
+        <v>84</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="F2" s="2">
         <v>948646</v>
@@ -1488,16 +1617,16 @@
         <v>63</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>69</v>
+        <v>85</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="F3" s="2">
         <v>678659</v>
@@ -1508,16 +1637,16 @@
         <v>64</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>56</v>
+        <v>73</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>68</v>
+        <v>84</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="F4" s="2">
         <v>50</v>
@@ -1528,16 +1657,16 @@
         <v>66</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>57</v>
+        <v>74</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>68</v>
+        <v>84</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>73</v>
+        <v>88</v>
       </c>
       <c r="F5" s="2">
         <v>155822</v>
@@ -1548,16 +1677,16 @@
         <v>67</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>58</v>
+        <v>75</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>68</v>
+        <v>84</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="F6" s="2">
         <v>38</v>
@@ -1568,16 +1697,16 @@
         <v>68</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>57</v>
+        <v>74</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>68</v>
+        <v>84</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>71</v>
+        <v>87</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="F7" s="2">
         <v>22912</v>
@@ -1588,16 +1717,16 @@
         <v>69</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>59</v>
+        <v>76</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>68</v>
+        <v>84</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F8" s="2">
         <v>921</v>
@@ -1608,16 +1737,16 @@
         <v>70</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>60</v>
+        <v>77</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>68</v>
+        <v>84</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F9" s="2">
         <v>201256</v>
@@ -1628,16 +1757,16 @@
         <v>71</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>68</v>
+        <v>84</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="F10" s="2">
         <v>895275</v>
@@ -1648,16 +1777,16 @@
         <v>72</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>68</v>
+        <v>84</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="F11" s="2">
         <v>755357</v>
@@ -1668,16 +1797,16 @@
         <v>73</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>68</v>
+        <v>84</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="F12" s="2">
         <v>281</v>
@@ -1688,16 +1817,16 @@
         <v>74</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>62</v>
+        <v>79</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>68</v>
+        <v>84</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F13" s="2">
         <v>281172</v>
@@ -1708,16 +1837,16 @@
         <v>75</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>68</v>
+        <v>84</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="F14" s="2">
         <v>76668</v>
@@ -1728,16 +1857,16 @@
         <v>76</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>64</v>
+        <v>81</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>68</v>
+        <v>84</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F15" s="2">
         <v>80099</v>
@@ -1748,16 +1877,16 @@
         <v>77</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>68</v>
+        <v>84</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F16" s="2">
         <v>54</v>
@@ -1768,16 +1897,16 @@
         <v>78</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>65</v>
+        <v>82</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>69</v>
+        <v>85</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F17" s="2">
         <v>2318616</v>
@@ -1788,16 +1917,16 @@
         <v>79</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>66</v>
+        <v>83</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>69</v>
+        <v>85</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="F18" s="2">
         <v>770841</v>
@@ -1808,16 +1937,16 @@
         <v>80</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>69</v>
+        <v>85</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="F19" s="2">
         <v>20749</v>
@@ -1828,16 +1957,16 @@
         <v>81</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>65</v>
+        <v>82</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>69</v>
+        <v>85</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="F20" s="2">
         <v>394256</v>
@@ -1848,16 +1977,16 @@
         <v>82</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>70</v>
+        <v>86</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="F21" s="2">
         <v>1000000</v>
@@ -1878,43 +2007,43 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>78</v>
+        <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>83</v>
+        <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>84</v>
+        <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>85</v>
+        <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>86</v>
+        <v>10</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>87</v>
+        <v>11</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>88</v>
+        <v>12</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>89</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -1922,10 +2051,10 @@
         <v>89</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D2" s="2">
         <v>8408</v>
@@ -1934,28 +2063,28 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="G2" s="2">
         <v>84080</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>110</v>
+        <v>32</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>111</v>
+        <v>33</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="L2" s="2">
         <v>1322</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>112</v>
+        <v>34</v>
       </c>
       <c r="N2" s="2">
         <v>89</v>
@@ -1966,10 +2095,10 @@
         <v>90</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D3" s="2">
         <v>198</v>
@@ -1978,28 +2107,28 @@
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="G3" s="2">
         <v>1980</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>110</v>
+        <v>32</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>111</v>
+        <v>33</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="L3" s="2">
         <v>1322</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>112</v>
+        <v>34</v>
       </c>
       <c r="N3" s="2">
         <v>90</v>
@@ -2010,10 +2139,10 @@
         <v>91</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D4" s="2">
         <v>21055</v>
@@ -2022,28 +2151,28 @@
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="G4" s="2">
         <v>210550</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>110</v>
+        <v>32</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>111</v>
+        <v>33</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="L4" s="2">
         <v>1322</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>112</v>
+        <v>34</v>
       </c>
       <c r="N4" s="2">
         <v>91</v>
@@ -2054,10 +2183,10 @@
         <v>92</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D5" s="2">
         <v>26924</v>
@@ -2066,28 +2195,28 @@
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="G5" s="2">
         <v>269240</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>110</v>
+        <v>32</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>111</v>
+        <v>33</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="L5" s="2">
         <v>1322</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>112</v>
+        <v>34</v>
       </c>
       <c r="N5" s="2">
         <v>92</v>
@@ -2098,10 +2227,10 @@
         <v>93</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D6" s="2">
         <v>6188</v>
@@ -2110,28 +2239,28 @@
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="G6" s="2">
         <v>61880</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>110</v>
+        <v>32</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>111</v>
+        <v>33</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="L6" s="2">
         <v>1322</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>112</v>
+        <v>34</v>
       </c>
       <c r="N6" s="2">
         <v>93</v>
@@ -2142,10 +2271,10 @@
         <v>94</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D7" s="2">
         <v>573</v>
@@ -2154,28 +2283,28 @@
         <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="G7" s="2">
         <v>5730</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>110</v>
+        <v>32</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>111</v>
+        <v>33</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="L7" s="2">
         <v>1322</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>112</v>
+        <v>34</v>
       </c>
       <c r="N7" s="2">
         <v>94</v>
@@ -2186,10 +2315,10 @@
         <v>95</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D8" s="2">
         <v>331</v>
@@ -2198,28 +2327,28 @@
         <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="G8" s="2">
         <v>3310</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>110</v>
+        <v>32</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>111</v>
+        <v>33</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="L8" s="2">
         <v>1322</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>112</v>
+        <v>34</v>
       </c>
       <c r="N8" s="2">
         <v>95</v>
@@ -2230,10 +2359,10 @@
         <v>96</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D9" s="2">
         <v>1453</v>
@@ -2242,28 +2371,28 @@
         <v>10</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="G9" s="2">
         <v>14530</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>110</v>
+        <v>32</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>111</v>
+        <v>33</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="L9" s="2">
         <v>1322</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>112</v>
+        <v>34</v>
       </c>
       <c r="N9" s="2">
         <v>96</v>
@@ -2274,10 +2403,10 @@
         <v>98</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D10" s="2">
         <v>4686</v>
@@ -2286,28 +2415,28 @@
         <v>10</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="G10" s="2">
         <v>46860</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>110</v>
+        <v>32</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>111</v>
+        <v>33</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="L10" s="2">
         <v>1322</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>112</v>
+        <v>34</v>
       </c>
       <c r="N10" s="2">
         <v>98</v>
@@ -2318,10 +2447,10 @@
         <v>99</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D11" s="2">
         <v>69</v>
@@ -2330,28 +2459,28 @@
         <v>10</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="G11" s="2">
         <v>690</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>110</v>
+        <v>32</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>111</v>
+        <v>33</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="L11" s="2">
         <v>1322</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>112</v>
+        <v>34</v>
       </c>
       <c r="N11" s="2">
         <v>99</v>
@@ -2362,10 +2491,10 @@
         <v>100</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="D12" s="2">
         <v>9435</v>
@@ -2374,28 +2503,28 @@
         <v>10</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="G12" s="2">
         <v>94350</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>110</v>
+        <v>32</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>111</v>
+        <v>33</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="L12" s="2">
         <v>1322</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>112</v>
+        <v>34</v>
       </c>
       <c r="N12" s="2">
         <v>100</v>
@@ -2406,10 +2535,10 @@
         <v>101</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D13" s="2">
         <v>925</v>
@@ -2418,28 +2547,28 @@
         <v>10</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="G13" s="2">
         <v>9250</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>110</v>
+        <v>32</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>111</v>
+        <v>33</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="L13" s="2">
         <v>1322</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>112</v>
+        <v>34</v>
       </c>
       <c r="N13" s="2">
         <v>101</v>
@@ -2450,10 +2579,10 @@
         <v>102</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D14" s="2">
         <v>52</v>
@@ -2462,28 +2591,28 @@
         <v>10</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="G14" s="2">
         <v>520</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>110</v>
+        <v>32</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>111</v>
+        <v>33</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="L14" s="2">
         <v>1322</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>112</v>
+        <v>34</v>
       </c>
       <c r="N14" s="2">
         <v>102</v>
@@ -2494,10 +2623,10 @@
         <v>103</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D15" s="2">
         <v>100000</v>
@@ -2506,28 +2635,28 @@
         <v>10</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="G15" s="2">
         <v>1000000</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>110</v>
+        <v>32</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>111</v>
+        <v>33</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="L15" s="2">
         <v>1322</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>112</v>
+        <v>34</v>
       </c>
       <c r="N15" s="2">
         <v>103</v>
@@ -2538,40 +2667,40 @@
         <v>104</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="E16" s="2">
         <v>10</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="G16" s="2">
         <v>50000</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>110</v>
+        <v>32</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>111</v>
+        <v>33</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="L16" s="2">
         <v>1322</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>112</v>
+        <v>34</v>
       </c>
       <c r="N16" s="2">
         <v>104</v>
@@ -2582,10 +2711,10 @@
         <v>105</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D17" s="2">
         <v>5000</v>
@@ -2594,28 +2723,28 @@
         <v>10</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="G17" s="2">
         <v>50000</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>110</v>
+        <v>32</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>111</v>
+        <v>33</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="L17" s="2">
         <v>1322</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>112</v>
+        <v>34</v>
       </c>
       <c r="N17" s="2">
         <v>105</v>
@@ -2626,10 +2755,10 @@
         <v>106</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D18" s="2">
         <v>30100</v>
@@ -2638,28 +2767,28 @@
         <v>10</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="G18" s="2">
         <v>301000</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>110</v>
+        <v>32</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>111</v>
+        <v>33</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="L18" s="2">
         <v>1322</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>112</v>
+        <v>34</v>
       </c>
       <c r="N18" s="2">
         <v>106</v>
@@ -2680,25 +2809,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -2706,13 +2835,13 @@
         <v>116</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>126</v>
+        <v>81</v>
       </c>
       <c r="E2" s="2">
         <v>60.36</v>
@@ -2721,7 +2850,7 @@
         <v>24.11</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="H2" s="2">
         <v>43312.03</v>
@@ -2732,13 +2861,13 @@
         <v>117</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>126</v>
+        <v>81</v>
       </c>
       <c r="E3" s="2">
         <v>8.06</v>
@@ -2747,7 +2876,7 @@
         <v>127.29</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="H3" s="2">
         <v>30534.54</v>
@@ -2758,13 +2887,13 @@
         <v>118</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>126</v>
+        <v>81</v>
       </c>
       <c r="E4" s="2">
         <v>85.83</v>
@@ -2773,7 +2902,7 @@
         <v>11.77</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="H4" s="2">
         <v>40732.03</v>
@@ -2784,13 +2913,13 @@
         <v>119</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>127</v>
+        <v>80</v>
       </c>
       <c r="E5" s="2">
         <v>220.44</v>
@@ -2799,7 +2928,7 @@
         <v>33.38</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="H5" s="2">
         <v>221490.47</v>
@@ -2810,13 +2939,13 @@
         <v>120</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>127</v>
+        <v>80</v>
       </c>
       <c r="E6" s="2">
         <v>368.49</v>
@@ -2825,7 +2954,7 @@
         <v>22.2</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="H6" s="2">
         <v>246237.73</v>
@@ -2836,13 +2965,13 @@
         <v>121</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>127</v>
+        <v>80</v>
       </c>
       <c r="E7" s="2">
         <v>439.67</v>
@@ -2851,7 +2980,7 @@
         <v>17.43</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="H7" s="2">
         <v>230670.31</v>
@@ -2872,13 +3001,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -2886,13 +3015,13 @@
         <v>136</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -2900,13 +3029,13 @@
         <v>137</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -2914,13 +3043,13 @@
         <v>138</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -2928,13 +3057,13 @@
         <v>139</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/吳育昇_2013-11-22_財產申報表_tmp88481.xlsx
+++ b/legislator/property/output/normal/吳育昇_2013-11-22_財產申報表_tmp88481.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="117">
   <si>
     <t>name</t>
   </si>
@@ -65,7 +65,10 @@
     <t>index</t>
   </si>
   <si>
-    <t>臺北市大安區通化段一小段02300001地號</t>
+    <t>portion</t>
+  </si>
+  <si>
+    <t>total</t>
   </si>
   <si>
     <t>臺北市大安區通化段一小段02300000地號</t>
@@ -80,9 +83,6 @@
     <t>臺北市大安區懷生段三小段04960000地號</t>
   </si>
   <si>
-    <t>10000分之34</t>
-  </si>
-  <si>
     <t>26590分之90</t>
   </si>
   <si>
@@ -128,30 +128,12 @@
     <t>tmp88481</t>
   </si>
   <si>
-    <t>建物標示</t>
-  </si>
-  <si>
-    <t>面積（平方公尺）</t>
-  </si>
-  <si>
-    <t>權利範圍(持分）</t>
-  </si>
-  <si>
-    <t>所有權人</t>
-  </si>
-  <si>
-    <t>登記（取得）時間</t>
-  </si>
-  <si>
-    <t>登記（取得）原因</t>
-  </si>
-  <si>
-    <t>取得價額</t>
-  </si>
-  <si>
     <t>臺北市大安區懷生段三小段02158000建號(陽台5.05平方公尺露台7.57平方公尺）</t>
   </si>
   <si>
+    <t>全部</t>
+  </si>
+  <si>
     <t>臺北市大安區通化段一小段01814000建號(陽台16.18平方公尺）</t>
   </si>
   <si>
@@ -182,9 +164,6 @@
     <t>新北市淡水區海天段01826000建號</t>
   </si>
   <si>
-    <t>全部</t>
-  </si>
-  <si>
     <t>100000分之303</t>
   </si>
   <si>
@@ -200,45 +179,27 @@
     <t>95年03月</t>
   </si>
   <si>
-    <t>廠牌型號</t>
-  </si>
-  <si>
-    <t>汽缸容量</t>
-  </si>
-  <si>
-    <t>所有人</t>
-  </si>
-  <si>
     <t>日產</t>
   </si>
   <si>
+    <t>93年07月20日</t>
+  </si>
+  <si>
     <t>LEXUS</t>
   </si>
   <si>
-    <t>93年07月20日</t>
-  </si>
-  <si>
     <t>101年02月17曰</t>
   </si>
   <si>
-    <t>幣別</t>
-  </si>
-  <si>
-    <t>新臺幣總額或折合新臺幣總額</t>
-  </si>
-  <si>
     <t>新臺幣</t>
   </si>
   <si>
-    <t>存放機構(應敘明分支機構）</t>
-  </si>
-  <si>
-    <t>種類</t>
-  </si>
-  <si>
     <t>台北富邦商業銀行信義分行</t>
   </si>
   <si>
+    <t>活期存款</t>
+  </si>
+  <si>
     <t>台新國際商業銀行</t>
   </si>
   <si>
@@ -275,9 +236,6 @@
     <t>安泰商業銀行</t>
   </si>
   <si>
-    <t>活期存款</t>
-  </si>
-  <si>
     <t>綜合存款</t>
   </si>
   <si>
@@ -308,12 +266,6 @@
     <t>currency</t>
   </si>
   <si>
-    <t>total</t>
-  </si>
-  <si>
-    <t>南亞塑膠工業股份有限公司</t>
-  </si>
-  <si>
     <t>台灣積體電路製造股份有限公司</t>
   </si>
   <si>
@@ -371,24 +323,12 @@
     <t>stock</t>
   </si>
   <si>
-    <t>名稱</t>
-  </si>
-  <si>
-    <t>受託投資機構</t>
-  </si>
-  <si>
-    <t>單位數</t>
-  </si>
-  <si>
-    <t>票面價額(單位淨值）</t>
-  </si>
-  <si>
-    <t>外幣幣別</t>
-  </si>
-  <si>
     <t>施羅德新興亞洲</t>
   </si>
   <si>
+    <t>美金</t>
+  </si>
+  <si>
     <t>貝萊德新興歐洲</t>
   </si>
   <si>
@@ -410,31 +350,19 @@
     <t>吳◦學</t>
   </si>
   <si>
-    <t>美金</t>
-  </si>
-  <si>
     <t>歐元</t>
   </si>
   <si>
-    <t>保險公司</t>
-  </si>
-  <si>
-    <t>保險名稱</t>
-  </si>
-  <si>
-    <t>要保人</t>
-  </si>
-  <si>
     <t>大都會國際人壽</t>
   </si>
   <si>
+    <t>大都會終身壽險</t>
+  </si>
+  <si>
     <t>富邦人壽</t>
   </si>
   <si>
     <t>南山人壽</t>
-  </si>
-  <si>
-    <t>大都會終身壽險</t>
   </si>
   <si>
     <t>富邦人壽子女儲蓄保險</t>
@@ -802,13 +730,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O6"/>
+  <dimension ref="A1:Q5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -851,19 +779,25 @@
       <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C2" s="2">
-        <v>1808</v>
+        <v>2659</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>24</v>
@@ -896,27 +830,33 @@
         <v>34</v>
       </c>
       <c r="O2" s="2">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>15</v>
+      </c>
+      <c r="P2" s="2">
+        <v>0.00338473110191801</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C3" s="2">
-        <v>2659</v>
+        <v>4324.24</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>29</v>
@@ -943,21 +883,27 @@
         <v>34</v>
       </c>
       <c r="O3" s="2">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>16</v>
+      </c>
+      <c r="P3" s="2">
+        <v>0.007721</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>33.38745704</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C4" s="2">
-        <v>4324.24</v>
+        <v>3083.12</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>25</v>
@@ -990,27 +936,33 @@
         <v>34</v>
       </c>
       <c r="O4" s="2">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>17</v>
+      </c>
+      <c r="P4" s="2">
+        <v>6e-05</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>0.1849872</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C5" s="2">
-        <v>3083.12</v>
+        <v>117</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>25</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>29</v>
@@ -1037,54 +989,13 @@
         <v>34</v>
       </c>
       <c r="O5" s="2">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
-      <c r="A6" s="1">
         <v>18</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="2">
-        <v>117</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="L6" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="M6" s="2">
-        <v>1322</v>
-      </c>
-      <c r="N6" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="O6" s="2">
-        <v>18</v>
+      <c r="P5" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>23.4</v>
       </c>
     </row>
   </sheetData>
@@ -1094,7 +1005,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I12"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1104,44 +1015,44 @@
       <c r="B1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="1">
+        <v>62.37</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>37</v>
-      </c>
       <c r="E1" s="1" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="I1" s="1"/>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="1">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C2" s="2">
-        <v>62.37</v>
+        <v>131.41</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>29</v>
@@ -1153,22 +1064,22 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="1">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C3" s="2">
-        <v>131.41</v>
+        <v>163.72</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>29</v>
@@ -1180,16 +1091,16 @@
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="1">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C4" s="2">
-        <v>163.72</v>
+        <v>88.29</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>25</v>
@@ -1207,16 +1118,16 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="1">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C5" s="2">
-        <v>88.29</v>
+        <v>36.83</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>25</v>
@@ -1234,22 +1145,22 @@
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="1">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C6" s="2">
-        <v>36.83</v>
+        <v>51.15</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>25</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>29</v>
@@ -1261,46 +1172,48 @@
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="1">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C7" s="2">
-        <v>51.15</v>
+        <v>186.48</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>58</v>
+        <v>25</v>
       </c>
       <c r="G7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H7" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="H7" s="2" t="s">
+      <c r="I7" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="I7" s="2"/>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="1">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C8" s="2">
-        <v>186.48</v>
+        <v>480.06</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>25</v>
@@ -1317,19 +1230,19 @@
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="1">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B9" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" s="2">
+        <v>547.61</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C9" s="2">
-        <v>480.06</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>56</v>
-      </c>
       <c r="E9" s="2" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>25</v>
@@ -1346,19 +1259,19 @@
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="1">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B10" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10" s="2">
+        <v>1132.07</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>50</v>
-      </c>
-      <c r="C10" s="2">
-        <v>547.61</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>57</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>25</v>
@@ -1375,19 +1288,19 @@
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="1">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C11" s="2">
-        <v>1132.07</v>
+        <v>605.16</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>25</v>
@@ -1399,35 +1312,6 @@
         <v>29</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="1">
-        <v>35</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C12" s="2">
-        <v>605.16</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="I12" s="2" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1438,7 +1322,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1446,67 +1330,44 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>60</v>
+        <v>52</v>
+      </c>
+      <c r="C1" s="1">
+        <v>1275</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>61</v>
+        <v>25</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>41</v>
+        <v>29</v>
+      </c>
+      <c r="G1" s="1">
+        <v>376000</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="C2" s="2">
-        <v>1275</v>
+        <v>1798</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>25</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>29</v>
       </c>
       <c r="G2" s="2">
-        <v>376000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="1">
-        <v>46</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C3" s="2">
-        <v>1798</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G3" s="2">
         <v>1192000</v>
       </c>
     </row>
@@ -1517,7 +1378,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1525,40 +1386,26 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>67</v>
+        <v>24</v>
+      </c>
+      <c r="D1" s="1">
+        <v>80000</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" s="2">
-        <v>80000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="1">
-        <v>57</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D3" s="2">
         <v>70000</v>
       </c>
     </row>
@@ -1569,7 +1416,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1577,418 +1424,398 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>67</v>
+        <v>25</v>
+      </c>
+      <c r="F1" s="1">
+        <v>948646</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>84</v>
-      </c>
       <c r="D2" s="2" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>25</v>
       </c>
       <c r="F2" s="2">
-        <v>948646</v>
+        <v>678659</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>85</v>
+        <v>58</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>25</v>
       </c>
       <c r="F3" s="2">
-        <v>678659</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>84</v>
+        <v>58</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>25</v>
+        <v>74</v>
       </c>
       <c r="F4" s="2">
-        <v>50</v>
+        <v>155822</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>84</v>
+        <v>58</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>88</v>
+        <v>25</v>
       </c>
       <c r="F5" s="2">
-        <v>155822</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>25</v>
-      </c>
       <c r="F6" s="2">
-        <v>38</v>
+        <v>22912</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>84</v>
+        <v>58</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>87</v>
+        <v>56</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>89</v>
+        <v>24</v>
       </c>
       <c r="F7" s="2">
-        <v>22912</v>
+        <v>921</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="1">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>84</v>
+        <v>58</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>24</v>
       </c>
       <c r="F8" s="2">
-        <v>921</v>
+        <v>201256</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="1">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>84</v>
+        <v>58</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>24</v>
+        <v>76</v>
       </c>
       <c r="F9" s="2">
-        <v>201256</v>
+        <v>895275</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="1">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>84</v>
+        <v>58</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="F10" s="2">
-        <v>895275</v>
+        <v>755357</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="1">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>84</v>
+        <v>58</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>91</v>
+        <v>25</v>
       </c>
       <c r="F11" s="2">
-        <v>755357</v>
+        <v>281</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="1">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>84</v>
+        <v>58</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F12" s="2">
-        <v>281</v>
+        <v>281172</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="1">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>84</v>
+        <v>58</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F13" s="2">
-        <v>281172</v>
+        <v>76668</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="1">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>84</v>
+        <v>58</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F14" s="2">
-        <v>76668</v>
+        <v>80099</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="1">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>81</v>
+        <v>65</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>84</v>
+        <v>58</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>24</v>
       </c>
       <c r="F15" s="2">
-        <v>80099</v>
+        <v>54</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="1">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>24</v>
       </c>
       <c r="F16" s="2">
-        <v>54</v>
+        <v>2318616</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="1">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F17" s="2">
-        <v>2318616</v>
+        <v>770841</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="1">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>25</v>
+        <v>76</v>
       </c>
       <c r="F18" s="2">
-        <v>770841</v>
+        <v>20749</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="1">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>90</v>
+        <v>25</v>
       </c>
       <c r="F19" s="2">
-        <v>20749</v>
+        <v>394256</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="1">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>25</v>
       </c>
       <c r="F20" s="2">
-        <v>394256</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21" s="1">
-        <v>82</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F21" s="2">
         <v>1000000</v>
       </c>
     </row>
@@ -1999,7 +1826,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N18"/>
+  <dimension ref="A1:N17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2013,16 +1840,16 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>95</v>
+        <v>15</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>7</v>
@@ -2048,28 +1875,28 @@
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="1">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D2" s="2">
-        <v>8408</v>
+        <v>198</v>
       </c>
       <c r="E2" s="2">
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="G2" s="2">
-        <v>84080</v>
+        <v>1980</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>32</v>
@@ -2087,33 +1914,33 @@
         <v>34</v>
       </c>
       <c r="N2" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D3" s="2">
-        <v>198</v>
+        <v>21055</v>
       </c>
       <c r="E3" s="2">
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="G3" s="2">
-        <v>1980</v>
+        <v>210550</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>32</v>
@@ -2131,33 +1958,33 @@
         <v>34</v>
       </c>
       <c r="N3" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>98</v>
+        <v>83</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D4" s="2">
-        <v>21055</v>
+        <v>26924</v>
       </c>
       <c r="E4" s="2">
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="G4" s="2">
-        <v>210550</v>
+        <v>269240</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>32</v>
@@ -2175,33 +2002,33 @@
         <v>34</v>
       </c>
       <c r="N4" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="1">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D5" s="2">
-        <v>26924</v>
+        <v>6188</v>
       </c>
       <c r="E5" s="2">
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="G5" s="2">
-        <v>269240</v>
+        <v>61880</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>32</v>
@@ -2219,33 +2046,33 @@
         <v>34</v>
       </c>
       <c r="N5" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="1">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D6" s="2">
-        <v>6188</v>
+        <v>573</v>
       </c>
       <c r="E6" s="2">
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="G6" s="2">
-        <v>61880</v>
+        <v>5730</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>32</v>
@@ -2263,33 +2090,33 @@
         <v>34</v>
       </c>
       <c r="N6" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="1">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D7" s="2">
-        <v>573</v>
+        <v>331</v>
       </c>
       <c r="E7" s="2">
         <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="G7" s="2">
-        <v>5730</v>
+        <v>3310</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>32</v>
@@ -2307,33 +2134,33 @@
         <v>34</v>
       </c>
       <c r="N7" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="1">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D8" s="2">
-        <v>331</v>
+        <v>1453</v>
       </c>
       <c r="E8" s="2">
         <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="G8" s="2">
-        <v>3310</v>
+        <v>14530</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>32</v>
@@ -2351,33 +2178,33 @@
         <v>34</v>
       </c>
       <c r="N8" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="1">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D9" s="2">
-        <v>1453</v>
+        <v>4686</v>
       </c>
       <c r="E9" s="2">
         <v>10</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="G9" s="2">
-        <v>14530</v>
+        <v>46860</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="I9" s="2" t="s">
         <v>32</v>
@@ -2395,33 +2222,33 @@
         <v>34</v>
       </c>
       <c r="N9" s="2">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="1">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>104</v>
+        <v>89</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D10" s="2">
-        <v>4686</v>
+        <v>69</v>
       </c>
       <c r="E10" s="2">
         <v>10</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="G10" s="2">
-        <v>46860</v>
+        <v>690</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>32</v>
@@ -2439,33 +2266,33 @@
         <v>34</v>
       </c>
       <c r="N10" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="1">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>105</v>
+        <v>90</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>25</v>
+        <v>97</v>
       </c>
       <c r="D11" s="2">
-        <v>69</v>
+        <v>9435</v>
       </c>
       <c r="E11" s="2">
         <v>10</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="G11" s="2">
-        <v>690</v>
+        <v>94350</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="I11" s="2" t="s">
         <v>32</v>
@@ -2483,33 +2310,33 @@
         <v>34</v>
       </c>
       <c r="N11" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="1">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>113</v>
+        <v>25</v>
       </c>
       <c r="D12" s="2">
-        <v>9435</v>
+        <v>925</v>
       </c>
       <c r="E12" s="2">
         <v>10</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="G12" s="2">
-        <v>94350</v>
+        <v>9250</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="I12" s="2" t="s">
         <v>32</v>
@@ -2527,33 +2354,33 @@
         <v>34</v>
       </c>
       <c r="N12" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="1">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D13" s="2">
-        <v>925</v>
+        <v>52</v>
       </c>
       <c r="E13" s="2">
         <v>10</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="G13" s="2">
-        <v>9250</v>
+        <v>520</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="I13" s="2" t="s">
         <v>32</v>
@@ -2571,33 +2398,33 @@
         <v>34</v>
       </c>
       <c r="N13" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="1">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D14" s="2">
-        <v>52</v>
+        <v>100000</v>
       </c>
       <c r="E14" s="2">
         <v>10</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="G14" s="2">
-        <v>520</v>
+        <v>1000000</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="I14" s="2" t="s">
         <v>32</v>
@@ -2615,33 +2442,33 @@
         <v>34</v>
       </c>
       <c r="N14" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="1">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D15" s="2">
-        <v>100000</v>
+      <c r="D15" s="2" t="s">
+        <v>98</v>
       </c>
       <c r="E15" s="2">
         <v>10</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="G15" s="2">
-        <v>1000000</v>
+        <v>50000</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="I15" s="2" t="s">
         <v>32</v>
@@ -2659,33 +2486,33 @@
         <v>34</v>
       </c>
       <c r="N15" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="16" spans="1:14">
       <c r="A16" s="1">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D16" s="2" t="s">
-        <v>114</v>
+      <c r="D16" s="2">
+        <v>5000</v>
       </c>
       <c r="E16" s="2">
         <v>10</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="G16" s="2">
         <v>50000</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="I16" s="2" t="s">
         <v>32</v>
@@ -2703,33 +2530,33 @@
         <v>34</v>
       </c>
       <c r="N16" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="17" spans="1:14">
       <c r="A17" s="1">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>111</v>
+        <v>96</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D17" s="2">
-        <v>5000</v>
+        <v>30100</v>
       </c>
       <c r="E17" s="2">
         <v>10</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="G17" s="2">
-        <v>50000</v>
+        <v>301000</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="I17" s="2" t="s">
         <v>32</v>
@@ -2747,50 +2574,6 @@
         <v>34</v>
       </c>
       <c r="N17" s="2">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
-      <c r="A18" s="1">
-        <v>106</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D18" s="2">
-        <v>30100</v>
-      </c>
-      <c r="E18" s="2">
-        <v>10</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="G18" s="2">
-        <v>301000</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="I18" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="J18" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="K18" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="L18" s="2">
-        <v>1322</v>
-      </c>
-      <c r="M18" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="N18" s="2">
         <v>106</v>
       </c>
     </row>
@@ -2801,7 +2584,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2809,180 +2592,154 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>116</v>
+        <v>100</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>119</v>
+        <v>68</v>
+      </c>
+      <c r="E1" s="1">
+        <v>60.36</v>
+      </c>
+      <c r="F1" s="1">
+        <v>24.11</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>67</v>
+        <v>101</v>
+      </c>
+      <c r="H1" s="1">
+        <v>43312.03</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>121</v>
+        <v>102</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>91</v>
+        <v>107</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="E2" s="2">
-        <v>60.36</v>
+        <v>8.06</v>
       </c>
       <c r="F2" s="2">
-        <v>24.11</v>
+        <v>127.29</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>129</v>
+        <v>101</v>
       </c>
       <c r="H2" s="2">
-        <v>43312.03</v>
+        <v>30534.54</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>127</v>
+        <v>108</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="E3" s="2">
-        <v>8.06</v>
+        <v>85.83</v>
       </c>
       <c r="F3" s="2">
-        <v>127.29</v>
+        <v>11.77</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>129</v>
+        <v>109</v>
       </c>
       <c r="H3" s="2">
-        <v>30534.54</v>
+        <v>40732.03</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>123</v>
+        <v>104</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>128</v>
+        <v>25</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="E4" s="2">
-        <v>85.83</v>
+        <v>220.44</v>
       </c>
       <c r="F4" s="2">
-        <v>11.77</v>
+        <v>33.38</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>130</v>
+        <v>101</v>
       </c>
       <c r="H4" s="2">
-        <v>40732.03</v>
+        <v>221490.47</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>124</v>
+        <v>105</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="E5" s="2">
-        <v>220.44</v>
+        <v>368.49</v>
       </c>
       <c r="F5" s="2">
-        <v>33.38</v>
+        <v>22.2</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>129</v>
+        <v>101</v>
       </c>
       <c r="H5" s="2">
-        <v>221490.47</v>
+        <v>246237.73</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>125</v>
+        <v>106</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="E6" s="2">
-        <v>368.49</v>
+        <v>439.67</v>
       </c>
       <c r="F6" s="2">
-        <v>22.2</v>
+        <v>17.43</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>129</v>
+        <v>101</v>
       </c>
       <c r="H6" s="2">
-        <v>246237.73</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="1">
-        <v>121</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="E7" s="2">
-        <v>439.67</v>
-      </c>
-      <c r="F7" s="2">
-        <v>17.43</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="H7" s="2">
         <v>230670.31</v>
       </c>
     </row>
@@ -2993,7 +2750,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3001,24 +2758,24 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>131</v>
+        <v>110</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>133</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>134</v>
+        <v>112</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>137</v>
+        <v>114</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>25</v>
@@ -3026,13 +2783,13 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>135</v>
+        <v>113</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>138</v>
+        <v>115</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>25</v>
@@ -3040,29 +2797,15 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>136</v>
+        <v>113</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>139</v>
+        <v>116</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="1">
-        <v>139</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="D5" s="2" t="s">
         <v>24</v>
       </c>
     </row>

--- a/legislator/property/output/normal/吳育昇_2013-11-22_財產申報表_tmp88481.xlsx
+++ b/legislator/property/output/normal/吳育昇_2013-11-22_財產申報表_tmp88481.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="116">
   <si>
     <t>name</t>
   </si>
@@ -71,6 +71,9 @@
     <t>total</t>
   </si>
   <si>
+    <t>臺北市大安區通化段一小段02300001地號</t>
+  </si>
+  <si>
     <t>臺北市大安區通化段一小段02300000地號</t>
   </si>
   <si>
@@ -83,6 +86,9 @@
     <t>臺北市大安區懷生段三小段04960000地號</t>
   </si>
   <si>
+    <t>10000分之34</t>
+  </si>
+  <si>
     <t>26590分之90</t>
   </si>
   <si>
@@ -131,54 +137,42 @@
     <t>臺北市大安區懷生段三小段02158000建號(陽台5.05平方公尺露台7.57平方公尺）</t>
   </si>
   <si>
+    <t>臺北市大安區通化段一小段01814000建號(陽台16.18平方公尺）</t>
+  </si>
+  <si>
+    <t>新北rh淡水區海天段01616000建號</t>
+  </si>
+  <si>
+    <t>新北市淡水區海天段01759000建號</t>
+  </si>
+  <si>
+    <t>新北市淡水區海天段01760000建號</t>
+  </si>
+  <si>
+    <t>新北市淡水區海天段01761000建號</t>
+  </si>
+  <si>
+    <t>新北市淡水區海天段01762000建號</t>
+  </si>
+  <si>
+    <t>新北市淡水區海天段01769000建號</t>
+  </si>
+  <si>
+    <t>新北市淡水區海天段01770000建號</t>
+  </si>
+  <si>
+    <t>新北市淡水區海天段01825000建號</t>
+  </si>
+  <si>
+    <t>新北市淡水區海天段01826000建號</t>
+  </si>
+  <si>
     <t>全部</t>
   </si>
   <si>
-    <t>臺北市大安區通化段一小段01814000建號(陽台16.18平方公尺）</t>
-  </si>
-  <si>
-    <t>新北rh淡水區海天段01616000建號</t>
-  </si>
-  <si>
-    <t>新北市淡水區海天段01759000建號</t>
-  </si>
-  <si>
-    <t>新北市淡水區海天段01760000建號</t>
-  </si>
-  <si>
-    <t>新北市淡水區海天段01761000</t>
-  </si>
-  <si>
-    <t>新北市淡水區海天段01762000建號</t>
-  </si>
-  <si>
-    <t>新北市淡水區海天段01769000建號</t>
-  </si>
-  <si>
-    <t>新北市淡水區海天段01770000建號</t>
-  </si>
-  <si>
-    <t>新北市淡水區海天段01825000建號</t>
-  </si>
-  <si>
-    <t>新北市淡水區海天段01826000建號</t>
-  </si>
-  <si>
     <t>100000分之303</t>
   </si>
   <si>
-    <t>100000分</t>
-  </si>
-  <si>
-    <t>100000之303</t>
-  </si>
-  <si>
-    <t>分</t>
-  </si>
-  <si>
-    <t>95年03月</t>
-  </si>
-  <si>
     <t>日產</t>
   </si>
   <si>
@@ -264,6 +258,9 @@
   </si>
   <si>
     <t>currency</t>
+  </si>
+  <si>
+    <t>南亞塑膠工業股份有限公司</t>
   </si>
   <si>
     <t>台灣積體電路製造股份有限公司</t>
@@ -730,7 +727,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q5"/>
+  <dimension ref="A1:Q6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -788,213 +785,266 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="1">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C2" s="2">
-        <v>2659</v>
+        <v>1808</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="M2" s="2">
         <v>1322</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="O2" s="2">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="P2" s="2">
-        <v>0.00338473110191801</v>
+        <v>0.0034</v>
       </c>
       <c r="Q2" s="2">
-        <v>9</v>
+        <v>6.1472</v>
       </c>
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="1">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C3" s="2">
-        <v>4324.24</v>
+        <v>2659</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="M3" s="2">
         <v>1322</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="O3" s="2">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="P3" s="2">
-        <v>0.007721</v>
+        <v>0.00338473110191801</v>
       </c>
       <c r="Q3" s="2">
-        <v>33.38745704</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="1">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C4" s="2">
-        <v>3083.12</v>
+        <v>4324.24</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="M4" s="2">
         <v>1322</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="O4" s="2">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P4" s="2">
-        <v>6e-05</v>
+        <v>0.007721</v>
       </c>
       <c r="Q4" s="2">
-        <v>0.1849872</v>
+        <v>33.38745704</v>
       </c>
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="1">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C5" s="2">
-        <v>117</v>
+        <v>3083.12</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="M5" s="2">
         <v>1322</v>
       </c>
       <c r="N5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="O5" s="2">
+        <v>17</v>
+      </c>
+      <c r="P5" s="2">
+        <v>6e-05</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>0.1849872</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
+      <c r="A6" s="1">
+        <v>18</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="2">
+        <v>117</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J6" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="O5" s="2">
+      <c r="K6" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M6" s="2">
+        <v>1322</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="O6" s="2">
         <v>18</v>
       </c>
-      <c r="P5" s="2">
+      <c r="P6" s="2">
         <v>0.2</v>
       </c>
-      <c r="Q5" s="2">
+      <c r="Q6" s="2">
         <v>23.4</v>
       </c>
     </row>
@@ -1005,314 +1055,643 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:Q12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:17">
       <c r="B1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C1" s="1">
-        <v>62.37</v>
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>36</v>
+        <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="I1" s="1"/>
-    </row>
-    <row r="2" spans="1:9">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>37</v>
       </c>
       <c r="C2" s="2">
-        <v>131.41</v>
+        <v>62.37</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M2" s="2">
+        <v>1322</v>
+      </c>
+      <c r="N2" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="O2" s="2">
+        <v>23</v>
+      </c>
+      <c r="P2" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>62.37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3" s="1">
         <v>24</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="I2" s="2"/>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="1">
-        <v>25</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>38</v>
       </c>
       <c r="C3" s="2">
-        <v>163.72</v>
+        <v>131.41</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M3" s="2">
+        <v>1322</v>
+      </c>
+      <c r="N3" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="O3" s="2">
+        <v>24</v>
+      </c>
+      <c r="P3" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>131.41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
+      <c r="A4" s="1">
         <v>25</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="I3" s="2"/>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="1">
-        <v>26</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>39</v>
       </c>
       <c r="C4" s="2">
-        <v>88.29</v>
+        <v>163.72</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M4" s="2">
+        <v>1322</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="O4" s="2">
         <v>25</v>
       </c>
-      <c r="F4" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="I4" s="2"/>
-    </row>
-    <row r="5" spans="1:9">
+      <c r="P4" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>163.72</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>40</v>
       </c>
       <c r="C5" s="2">
-        <v>36.83</v>
+        <v>88.29</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="I5" s="2"/>
-    </row>
-    <row r="6" spans="1:9">
+        <v>32</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M5" s="2">
+        <v>1322</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="O5" s="2">
+        <v>26</v>
+      </c>
+      <c r="P5" s="2">
+        <v>0.00303</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>0.2675187</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>41</v>
       </c>
       <c r="C6" s="2">
-        <v>51.15</v>
+        <v>36.83</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="I6" s="2"/>
-    </row>
-    <row r="7" spans="1:9">
+        <v>32</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M6" s="2">
+        <v>1322</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="O6" s="2">
+        <v>27</v>
+      </c>
+      <c r="P6" s="2">
+        <v>0.00303</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>0.1115949</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C7" s="2">
-        <v>186.48</v>
+        <v>51.15</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>49</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="H7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M7" s="2">
+        <v>1322</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="O7" s="2">
+        <v>28</v>
+      </c>
+      <c r="P7" s="2">
+        <v>0.00303</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>0.1549845</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
+      <c r="A8" s="1">
         <v>29</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="1">
-        <v>32</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>43</v>
       </c>
       <c r="C8" s="2">
-        <v>480.06</v>
+        <v>186.48</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>49</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="H8" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M8" s="2">
+        <v>1322</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="O8" s="2">
         <v>29</v>
       </c>
-      <c r="I8" s="2" t="s">
+      <c r="P8" s="2">
+        <v>0.00303</v>
+      </c>
+      <c r="Q8" s="2">
+        <v>0.5650344</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
+      <c r="A9" s="1">
         <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="1">
-        <v>33</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>44</v>
       </c>
       <c r="C9" s="2">
-        <v>547.61</v>
+        <v>480.06</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>49</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="I9" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M9" s="2">
+        <v>1322</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="O9" s="2">
         <v>30</v>
       </c>
-    </row>
-    <row r="10" spans="1:9">
+      <c r="P9" s="2">
+        <v>0.00303</v>
+      </c>
+      <c r="Q9" s="2">
+        <v>1.4545818</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>45</v>
       </c>
       <c r="C10" s="2">
-        <v>1132.07</v>
+        <v>547.61</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>49</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
+        <v>33</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M10" s="2">
+        <v>1322</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="O10" s="2">
+        <v>31</v>
+      </c>
+      <c r="P10" s="2">
+        <v>0.00303</v>
+      </c>
+      <c r="Q10" s="2">
+        <v>1.6592583</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>46</v>
       </c>
       <c r="C11" s="2">
-        <v>605.16</v>
+        <v>1132.07</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>49</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="H11" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M11" s="2">
+        <v>1322</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="O11" s="2">
+        <v>32</v>
+      </c>
+      <c r="P11" s="2">
+        <v>0.00303</v>
+      </c>
+      <c r="Q11" s="2">
+        <v>3.4301721</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="A12" s="1">
+        <v>33</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C12" s="2">
+        <v>605.16</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F12" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="I11" s="2" t="s">
-        <v>30</v>
+      <c r="G12" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M12" s="2">
+        <v>1322</v>
+      </c>
+      <c r="N12" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="O12" s="2">
+        <v>33</v>
+      </c>
+      <c r="P12" s="2">
+        <v>0.00303</v>
+      </c>
+      <c r="Q12" s="2">
+        <v>1.8336348</v>
       </c>
     </row>
   </sheetData>
@@ -1322,7 +1701,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1330,19 +1709,19 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C1" s="1">
         <v>1275</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G1" s="1">
         <v>376000</v>
@@ -1350,24 +1729,47 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C2" s="2">
+        <v>1275</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G2" s="2">
+        <v>376000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1">
+        <v>44</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C3" s="2">
         <v>1798</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G2" s="2">
+      <c r="D3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G3" s="2">
         <v>1192000</v>
       </c>
     </row>
@@ -1378,7 +1780,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1386,10 +1788,10 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D1" s="1">
         <v>80000</v>
@@ -1397,15 +1799,29 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" s="2">
+        <v>80000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1">
+        <v>55</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="2">
         <v>70000</v>
       </c>
     </row>
@@ -1416,7 +1832,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1424,16 +1840,16 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F1" s="1">
         <v>948646</v>
@@ -1441,381 +1857,401 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F2" s="2">
-        <v>678659</v>
+        <v>948646</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F3" s="2">
-        <v>50</v>
+        <v>678659</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>74</v>
+        <v>27</v>
       </c>
       <c r="F4" s="2">
-        <v>155822</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>25</v>
+        <v>72</v>
       </c>
       <c r="F5" s="2">
-        <v>38</v>
+        <v>155822</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>73</v>
+        <v>54</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>75</v>
+        <v>27</v>
       </c>
       <c r="F6" s="2">
-        <v>22912</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>24</v>
+        <v>73</v>
       </c>
       <c r="F7" s="2">
-        <v>921</v>
+        <v>22912</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="1">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F8" s="2">
-        <v>201256</v>
+        <v>921</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="1">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>76</v>
+        <v>26</v>
       </c>
       <c r="F9" s="2">
-        <v>895275</v>
+        <v>201256</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="1">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F10" s="2">
-        <v>755357</v>
+        <v>895275</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="1">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>25</v>
+        <v>75</v>
       </c>
       <c r="F11" s="2">
-        <v>281</v>
+        <v>755357</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="1">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="F12" s="2">
-        <v>281172</v>
+        <v>281</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="1">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F13" s="2">
-        <v>76668</v>
+        <v>281172</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="1">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="F14" s="2">
-        <v>80099</v>
+        <v>76668</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="1">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F15" s="2">
-        <v>54</v>
+        <v>80099</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="1">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F16" s="2">
-        <v>2318616</v>
+        <v>54</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="1">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F17" s="2">
-        <v>770841</v>
+        <v>2318616</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="1">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>68</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>76</v>
+        <v>27</v>
       </c>
       <c r="F18" s="2">
-        <v>20749</v>
+        <v>770841</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="1">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B19" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C19" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C19" s="2" t="s">
-        <v>71</v>
-      </c>
       <c r="D19" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>25</v>
+        <v>74</v>
       </c>
       <c r="F19" s="2">
-        <v>394256</v>
+        <v>20749</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="1">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F20" s="2">
+        <v>394256</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="1">
+        <v>80</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F21" s="2">
         <v>1000000</v>
       </c>
     </row>
@@ -1826,7 +2262,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N17"/>
+  <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1840,13 +2276,13 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>78</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>80</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>15</v>
@@ -1875,706 +2311,750 @@
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="1">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D2" s="2">
-        <v>198</v>
+        <v>8408</v>
       </c>
       <c r="E2" s="2">
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G2" s="2">
-        <v>1980</v>
+        <v>84080</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="L2" s="2">
         <v>1322</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="N2" s="2">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D3" s="2">
-        <v>21055</v>
+        <v>198</v>
       </c>
       <c r="E3" s="2">
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G3" s="2">
-        <v>210550</v>
+        <v>1980</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="L3" s="2">
         <v>1322</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="N3" s="2">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D4" s="2">
-        <v>26924</v>
+        <v>21055</v>
       </c>
       <c r="E4" s="2">
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G4" s="2">
-        <v>269240</v>
+        <v>210550</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="L4" s="2">
         <v>1322</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="N4" s="2">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="1">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D5" s="2">
-        <v>6188</v>
+        <v>26924</v>
       </c>
       <c r="E5" s="2">
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G5" s="2">
-        <v>61880</v>
+        <v>269240</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="L5" s="2">
         <v>1322</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="N5" s="2">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="1">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D6" s="2">
-        <v>573</v>
+        <v>6188</v>
       </c>
       <c r="E6" s="2">
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G6" s="2">
-        <v>5730</v>
+        <v>61880</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="L6" s="2">
         <v>1322</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="N6" s="2">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="1">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D7" s="2">
-        <v>331</v>
+        <v>573</v>
       </c>
       <c r="E7" s="2">
         <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G7" s="2">
-        <v>3310</v>
+        <v>5730</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="L7" s="2">
         <v>1322</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="N7" s="2">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="1">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D8" s="2">
-        <v>1453</v>
+        <v>331</v>
       </c>
       <c r="E8" s="2">
         <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G8" s="2">
-        <v>14530</v>
+        <v>3310</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="L8" s="2">
         <v>1322</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="N8" s="2">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="1">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D9" s="2">
-        <v>4686</v>
+        <v>1453</v>
       </c>
       <c r="E9" s="2">
         <v>10</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G9" s="2">
-        <v>46860</v>
+        <v>14530</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="L9" s="2">
         <v>1322</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="N9" s="2">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="1">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D10" s="2">
-        <v>69</v>
+        <v>4686</v>
       </c>
       <c r="E10" s="2">
         <v>10</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G10" s="2">
-        <v>690</v>
+        <v>46860</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="L10" s="2">
         <v>1322</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="N10" s="2">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="1">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>97</v>
+        <v>27</v>
       </c>
       <c r="D11" s="2">
-        <v>9435</v>
+        <v>69</v>
       </c>
       <c r="E11" s="2">
         <v>10</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G11" s="2">
-        <v>94350</v>
+        <v>690</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="L11" s="2">
         <v>1322</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="N11" s="2">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="1">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>25</v>
+        <v>96</v>
       </c>
       <c r="D12" s="2">
-        <v>925</v>
+        <v>9435</v>
       </c>
       <c r="E12" s="2">
         <v>10</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G12" s="2">
-        <v>9250</v>
+        <v>94350</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="L12" s="2">
         <v>1322</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="N12" s="2">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="1">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D13" s="2">
-        <v>52</v>
+        <v>925</v>
       </c>
       <c r="E13" s="2">
         <v>10</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G13" s="2">
-        <v>520</v>
+        <v>9250</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="L13" s="2">
         <v>1322</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="N13" s="2">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="1">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D14" s="2">
-        <v>100000</v>
+        <v>52</v>
       </c>
       <c r="E14" s="2">
         <v>10</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G14" s="2">
-        <v>1000000</v>
+        <v>520</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="L14" s="2">
         <v>1322</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="N14" s="2">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="1">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>98</v>
+        <v>27</v>
+      </c>
+      <c r="D15" s="2">
+        <v>100000</v>
       </c>
       <c r="E15" s="2">
         <v>10</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G15" s="2">
-        <v>50000</v>
+        <v>1000000</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="L15" s="2">
         <v>1322</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="N15" s="2">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="16" spans="1:14">
       <c r="A16" s="1">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" s="2">
-        <v>5000</v>
+        <v>27</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>97</v>
       </c>
       <c r="E16" s="2">
         <v>10</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G16" s="2">
         <v>50000</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="L16" s="2">
         <v>1322</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="N16" s="2">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="17" spans="1:14">
       <c r="A17" s="1">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D17" s="2">
-        <v>30100</v>
+        <v>5000</v>
       </c>
       <c r="E17" s="2">
         <v>10</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G17" s="2">
-        <v>301000</v>
+        <v>50000</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="L17" s="2">
         <v>1322</v>
       </c>
       <c r="M17" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="N17" s="2">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
+      <c r="A18" s="1">
+        <v>104</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" s="2">
+        <v>30100</v>
+      </c>
+      <c r="E18" s="2">
+        <v>10</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G18" s="2">
+        <v>301000</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="I18" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="N17" s="2">
-        <v>106</v>
+      <c r="J18" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L18" s="2">
+        <v>1322</v>
+      </c>
+      <c r="M18" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="N18" s="2">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -2584,7 +3064,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2592,13 +3072,13 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E1" s="1">
         <v>60.36</v>
@@ -2607,7 +3087,7 @@
         <v>24.11</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H1" s="1">
         <v>43312.03</v>
@@ -2615,131 +3095,157 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E2" s="2">
-        <v>8.06</v>
+        <v>60.36</v>
       </c>
       <c r="F2" s="2">
-        <v>127.29</v>
+        <v>24.11</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H2" s="2">
-        <v>30534.54</v>
+        <v>43312.03</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E3" s="2">
-        <v>85.83</v>
+        <v>8.06</v>
       </c>
       <c r="F3" s="2">
-        <v>11.77</v>
+        <v>127.29</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="H3" s="2">
-        <v>40732.03</v>
+        <v>30534.54</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>25</v>
+        <v>107</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E4" s="2">
-        <v>220.44</v>
+        <v>85.83</v>
       </c>
       <c r="F4" s="2">
-        <v>33.38</v>
+        <v>11.77</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="H4" s="2">
-        <v>221490.47</v>
+        <v>40732.03</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E5" s="2">
-        <v>368.49</v>
+        <v>220.44</v>
       </c>
       <c r="F5" s="2">
-        <v>22.2</v>
+        <v>33.38</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H5" s="2">
-        <v>246237.73</v>
+        <v>221490.47</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E6" s="2">
+        <v>368.49</v>
+      </c>
+      <c r="F6" s="2">
+        <v>22.2</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="H6" s="2">
+        <v>246237.73</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="1">
+        <v>119</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E7" s="2">
         <v>439.67</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F7" s="2">
         <v>17.43</v>
       </c>
-      <c r="G6" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="H6" s="2">
+      <c r="G7" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="H7" s="2">
         <v>230670.31</v>
       </c>
     </row>
@@ -2750,7 +3256,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2758,55 +3264,69 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>111</v>
-      </c>
       <c r="D1" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>115</v>
-      </c>
       <c r="D3" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="1">
+        <v>137</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/吳育昇_2013-11-22_財產申報表_tmp88481.xlsx
+++ b/legislator/property/output/normal/吳育昇_2013-11-22_財產申報表_tmp88481.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="117">
   <si>
     <t>name</t>
   </si>
@@ -173,13 +173,16 @@
     <t>100000分之303</t>
   </si>
   <si>
+    <t>capacity</t>
+  </si>
+  <si>
     <t>日產</t>
   </si>
   <si>
+    <t>LEXUS</t>
+  </si>
+  <si>
     <t>93年07月20日</t>
-  </si>
-  <si>
-    <t>LEXUS</t>
   </si>
   <si>
     <t>101年02月17曰</t>
@@ -1701,38 +1704,59 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C1" s="1">
-        <v>1275</v>
-      </c>
       <c r="D1" s="1" t="s">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>51</v>
+        <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="G1" s="1">
-        <v>376000</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>43</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C2" s="2">
         <v>1275</v>
@@ -1741,7 +1765,7 @@
         <v>27</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>31</v>
@@ -1749,8 +1773,29 @@
       <c r="G2" s="2">
         <v>376000</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="H2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L2" s="2">
+        <v>1322</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="N2" s="2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>44</v>
       </c>
@@ -1764,13 +1809,34 @@
         <v>27</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>31</v>
       </c>
       <c r="G3" s="2">
         <v>1192000</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L3" s="2">
+        <v>1322</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="N3" s="2">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -1788,7 +1854,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>26</v>
@@ -1802,7 +1868,7 @@
         <v>54</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>26</v>
@@ -1816,7 +1882,7 @@
         <v>55</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>27</v>
@@ -1840,13 +1906,13 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>27</v>
@@ -1860,13 +1926,13 @@
         <v>60</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>27</v>
@@ -1880,13 +1946,13 @@
         <v>61</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>27</v>
@@ -1900,13 +1966,13 @@
         <v>62</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>27</v>
@@ -1920,16 +1986,16 @@
         <v>64</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F5" s="2">
         <v>155822</v>
@@ -1940,13 +2006,13 @@
         <v>65</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>27</v>
@@ -1960,16 +2026,16 @@
         <v>66</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F7" s="2">
         <v>22912</v>
@@ -1980,13 +2046,13 @@
         <v>67</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>26</v>
@@ -2000,13 +2066,13 @@
         <v>68</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>26</v>
@@ -2020,16 +2086,16 @@
         <v>69</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F10" s="2">
         <v>895275</v>
@@ -2040,16 +2106,16 @@
         <v>70</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F11" s="2">
         <v>755357</v>
@@ -2060,13 +2126,13 @@
         <v>71</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>27</v>
@@ -2080,13 +2146,13 @@
         <v>72</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>26</v>
@@ -2100,13 +2166,13 @@
         <v>73</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>27</v>
@@ -2120,13 +2186,13 @@
         <v>74</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>26</v>
@@ -2140,13 +2206,13 @@
         <v>75</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>26</v>
@@ -2160,13 +2226,13 @@
         <v>76</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>26</v>
@@ -2180,13 +2246,13 @@
         <v>77</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>27</v>
@@ -2200,16 +2266,16 @@
         <v>78</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F19" s="2">
         <v>20749</v>
@@ -2220,13 +2286,13 @@
         <v>79</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>27</v>
@@ -2240,13 +2306,13 @@
         <v>80</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>27</v>
@@ -2276,13 +2342,13 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>15</v>
@@ -2314,7 +2380,7 @@
         <v>87</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>27</v>
@@ -2326,13 +2392,13 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G2" s="2">
         <v>84080</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>34</v>
@@ -2358,7 +2424,7 @@
         <v>88</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>27</v>
@@ -2370,13 +2436,13 @@
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G3" s="2">
         <v>1980</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>34</v>
@@ -2402,7 +2468,7 @@
         <v>89</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>27</v>
@@ -2414,13 +2480,13 @@
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G4" s="2">
         <v>210550</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>34</v>
@@ -2446,7 +2512,7 @@
         <v>90</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>27</v>
@@ -2458,13 +2524,13 @@
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G5" s="2">
         <v>269240</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>34</v>
@@ -2490,7 +2556,7 @@
         <v>91</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>27</v>
@@ -2502,13 +2568,13 @@
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G6" s="2">
         <v>61880</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>34</v>
@@ -2534,7 +2600,7 @@
         <v>92</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>27</v>
@@ -2546,13 +2612,13 @@
         <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G7" s="2">
         <v>5730</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>34</v>
@@ -2578,7 +2644,7 @@
         <v>93</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>27</v>
@@ -2590,13 +2656,13 @@
         <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G8" s="2">
         <v>3310</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>34</v>
@@ -2622,7 +2688,7 @@
         <v>94</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>27</v>
@@ -2634,13 +2700,13 @@
         <v>10</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G9" s="2">
         <v>14530</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I9" s="2" t="s">
         <v>34</v>
@@ -2666,7 +2732,7 @@
         <v>96</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>27</v>
@@ -2678,13 +2744,13 @@
         <v>10</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G10" s="2">
         <v>46860</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>34</v>
@@ -2710,7 +2776,7 @@
         <v>97</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>27</v>
@@ -2722,13 +2788,13 @@
         <v>10</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G11" s="2">
         <v>690</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I11" s="2" t="s">
         <v>34</v>
@@ -2754,10 +2820,10 @@
         <v>98</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D12" s="2">
         <v>9435</v>
@@ -2766,13 +2832,13 @@
         <v>10</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G12" s="2">
         <v>94350</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I12" s="2" t="s">
         <v>34</v>
@@ -2798,7 +2864,7 @@
         <v>99</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>27</v>
@@ -2810,13 +2876,13 @@
         <v>10</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G13" s="2">
         <v>9250</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I13" s="2" t="s">
         <v>34</v>
@@ -2842,7 +2908,7 @@
         <v>100</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>26</v>
@@ -2854,13 +2920,13 @@
         <v>10</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G14" s="2">
         <v>520</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I14" s="2" t="s">
         <v>34</v>
@@ -2886,7 +2952,7 @@
         <v>101</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>27</v>
@@ -2898,13 +2964,13 @@
         <v>10</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G15" s="2">
         <v>1000000</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I15" s="2" t="s">
         <v>34</v>
@@ -2930,25 +2996,25 @@
         <v>102</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E16" s="2">
         <v>10</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G16" s="2">
         <v>50000</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I16" s="2" t="s">
         <v>34</v>
@@ -2974,7 +3040,7 @@
         <v>103</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>27</v>
@@ -2986,13 +3052,13 @@
         <v>10</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G17" s="2">
         <v>50000</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I17" s="2" t="s">
         <v>34</v>
@@ -3018,7 +3084,7 @@
         <v>104</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>27</v>
@@ -3030,13 +3096,13 @@
         <v>10</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G18" s="2">
         <v>301000</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I18" s="2" t="s">
         <v>34</v>
@@ -3072,13 +3138,13 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E1" s="1">
         <v>60.36</v>
@@ -3087,7 +3153,7 @@
         <v>24.11</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="H1" s="1">
         <v>43312.03</v>
@@ -3098,13 +3164,13 @@
         <v>114</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E2" s="2">
         <v>60.36</v>
@@ -3113,7 +3179,7 @@
         <v>24.11</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="H2" s="2">
         <v>43312.03</v>
@@ -3124,13 +3190,13 @@
         <v>115</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E3" s="2">
         <v>8.06</v>
@@ -3139,7 +3205,7 @@
         <v>127.29</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="H3" s="2">
         <v>30534.54</v>
@@ -3150,13 +3216,13 @@
         <v>116</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E4" s="2">
         <v>85.83</v>
@@ -3165,7 +3231,7 @@
         <v>11.77</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H4" s="2">
         <v>40732.03</v>
@@ -3176,13 +3242,13 @@
         <v>117</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E5" s="2">
         <v>220.44</v>
@@ -3191,7 +3257,7 @@
         <v>33.38</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="H5" s="2">
         <v>221490.47</v>
@@ -3202,13 +3268,13 @@
         <v>118</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E6" s="2">
         <v>368.49</v>
@@ -3217,7 +3283,7 @@
         <v>22.2</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="H6" s="2">
         <v>246237.73</v>
@@ -3228,13 +3294,13 @@
         <v>119</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E7" s="2">
         <v>439.67</v>
@@ -3243,7 +3309,7 @@
         <v>17.43</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="H7" s="2">
         <v>230670.31</v>
@@ -3264,10 +3330,10 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>27</v>
@@ -3278,10 +3344,10 @@
         <v>134</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>27</v>
@@ -3292,10 +3358,10 @@
         <v>135</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>27</v>
@@ -3306,10 +3372,10 @@
         <v>136</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>27</v>
@@ -3320,10 +3386,10 @@
         <v>137</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>26</v>

--- a/legislator/property/output/normal/吳育昇_2013-11-22_財產申報表_tmp88481.xlsx
+++ b/legislator/property/output/normal/吳育昇_2013-11-22_財產申報表_tmp88481.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="119">
   <si>
     <t>name</t>
   </si>
@@ -173,6 +173,9 @@
     <t>100000分之303</t>
   </si>
   <si>
+    <t>building</t>
+  </si>
+  <si>
     <t>capacity</t>
   </si>
   <si>
@@ -186,6 +189,9 @@
   </si>
   <si>
     <t>101年02月17曰</t>
+  </si>
+  <si>
+    <t>car</t>
   </si>
   <si>
     <t>新臺幣</t>
@@ -1140,7 +1146,7 @@
         <v>32</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>34</v>
@@ -1193,7 +1199,7 @@
         <v>32</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>34</v>
@@ -1246,7 +1252,7 @@
         <v>32</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>34</v>
@@ -1299,7 +1305,7 @@
         <v>32</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="J5" s="2" t="s">
         <v>34</v>
@@ -1352,7 +1358,7 @@
         <v>32</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="J6" s="2" t="s">
         <v>34</v>
@@ -1405,7 +1411,7 @@
         <v>32</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="J7" s="2" t="s">
         <v>34</v>
@@ -1458,7 +1464,7 @@
         <v>32</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="J8" s="2" t="s">
         <v>34</v>
@@ -1511,7 +1517,7 @@
         <v>32</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="J9" s="2" t="s">
         <v>34</v>
@@ -1564,7 +1570,7 @@
         <v>32</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="J10" s="2" t="s">
         <v>34</v>
@@ -1617,7 +1623,7 @@
         <v>32</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="J11" s="2" t="s">
         <v>34</v>
@@ -1670,7 +1676,7 @@
         <v>32</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="J12" s="2" t="s">
         <v>34</v>
@@ -1715,7 +1721,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -1756,7 +1762,7 @@
         <v>43</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C2" s="2">
         <v>1275</v>
@@ -1765,7 +1771,7 @@
         <v>27</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>31</v>
@@ -1774,7 +1780,7 @@
         <v>376000</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>33</v>
+        <v>56</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>34</v>
@@ -1800,7 +1806,7 @@
         <v>44</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C3" s="2">
         <v>1798</v>
@@ -1809,7 +1815,7 @@
         <v>27</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>31</v>
@@ -1818,7 +1824,7 @@
         <v>1192000</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>33</v>
+        <v>56</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>34</v>
@@ -1854,7 +1860,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>26</v>
@@ -1868,7 +1874,7 @@
         <v>54</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>26</v>
@@ -1882,7 +1888,7 @@
         <v>55</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>27</v>
@@ -1906,13 +1912,13 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>27</v>
@@ -1926,13 +1932,13 @@
         <v>60</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>27</v>
@@ -1946,13 +1952,13 @@
         <v>61</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>27</v>
@@ -1966,13 +1972,13 @@
         <v>62</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>57</v>
-      </c>
       <c r="D4" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>27</v>
@@ -1986,16 +1992,16 @@
         <v>64</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F5" s="2">
         <v>155822</v>
@@ -2006,13 +2012,13 @@
         <v>65</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>27</v>
@@ -2026,16 +2032,16 @@
         <v>66</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F7" s="2">
         <v>22912</v>
@@ -2046,13 +2052,13 @@
         <v>67</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>26</v>
@@ -2066,13 +2072,13 @@
         <v>68</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>26</v>
@@ -2086,16 +2092,16 @@
         <v>69</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F10" s="2">
         <v>895275</v>
@@ -2106,16 +2112,16 @@
         <v>70</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F11" s="2">
         <v>755357</v>
@@ -2126,13 +2132,13 @@
         <v>71</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>27</v>
@@ -2146,13 +2152,13 @@
         <v>72</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>26</v>
@@ -2166,13 +2172,13 @@
         <v>73</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>27</v>
@@ -2186,13 +2192,13 @@
         <v>74</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>26</v>
@@ -2206,13 +2212,13 @@
         <v>75</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>26</v>
@@ -2226,13 +2232,13 @@
         <v>76</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>26</v>
@@ -2246,13 +2252,13 @@
         <v>77</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>27</v>
@@ -2266,16 +2272,16 @@
         <v>78</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F19" s="2">
         <v>20749</v>
@@ -2286,13 +2292,13 @@
         <v>79</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>27</v>
@@ -2306,13 +2312,13 @@
         <v>80</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>27</v>
@@ -2342,13 +2348,13 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>15</v>
@@ -2380,7 +2386,7 @@
         <v>87</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>27</v>
@@ -2392,13 +2398,13 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="G2" s="2">
         <v>84080</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>34</v>
@@ -2424,7 +2430,7 @@
         <v>88</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>27</v>
@@ -2436,13 +2442,13 @@
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="G3" s="2">
         <v>1980</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>34</v>
@@ -2468,7 +2474,7 @@
         <v>89</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>27</v>
@@ -2480,13 +2486,13 @@
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="G4" s="2">
         <v>210550</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>34</v>
@@ -2512,7 +2518,7 @@
         <v>90</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>27</v>
@@ -2524,13 +2530,13 @@
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="G5" s="2">
         <v>269240</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>34</v>
@@ -2556,7 +2562,7 @@
         <v>91</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>27</v>
@@ -2568,13 +2574,13 @@
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="G6" s="2">
         <v>61880</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>34</v>
@@ -2600,7 +2606,7 @@
         <v>92</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>27</v>
@@ -2612,13 +2618,13 @@
         <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="G7" s="2">
         <v>5730</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>34</v>
@@ -2644,7 +2650,7 @@
         <v>93</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>27</v>
@@ -2656,13 +2662,13 @@
         <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="G8" s="2">
         <v>3310</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>34</v>
@@ -2688,7 +2694,7 @@
         <v>94</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>27</v>
@@ -2700,13 +2706,13 @@
         <v>10</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="G9" s="2">
         <v>14530</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="I9" s="2" t="s">
         <v>34</v>
@@ -2732,7 +2738,7 @@
         <v>96</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>27</v>
@@ -2744,13 +2750,13 @@
         <v>10</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="G10" s="2">
         <v>46860</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>34</v>
@@ -2776,7 +2782,7 @@
         <v>97</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>27</v>
@@ -2788,13 +2794,13 @@
         <v>10</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="G11" s="2">
         <v>690</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="I11" s="2" t="s">
         <v>34</v>
@@ -2820,10 +2826,10 @@
         <v>98</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D12" s="2">
         <v>9435</v>
@@ -2832,13 +2838,13 @@
         <v>10</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="G12" s="2">
         <v>94350</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="I12" s="2" t="s">
         <v>34</v>
@@ -2864,7 +2870,7 @@
         <v>99</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>27</v>
@@ -2876,13 +2882,13 @@
         <v>10</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="G13" s="2">
         <v>9250</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="I13" s="2" t="s">
         <v>34</v>
@@ -2908,7 +2914,7 @@
         <v>100</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>26</v>
@@ -2920,13 +2926,13 @@
         <v>10</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="G14" s="2">
         <v>520</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="I14" s="2" t="s">
         <v>34</v>
@@ -2952,7 +2958,7 @@
         <v>101</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>27</v>
@@ -2964,13 +2970,13 @@
         <v>10</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="G15" s="2">
         <v>1000000</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="I15" s="2" t="s">
         <v>34</v>
@@ -2996,25 +3002,25 @@
         <v>102</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E16" s="2">
         <v>10</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="G16" s="2">
         <v>50000</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="I16" s="2" t="s">
         <v>34</v>
@@ -3040,7 +3046,7 @@
         <v>103</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>27</v>
@@ -3052,13 +3058,13 @@
         <v>10</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="G17" s="2">
         <v>50000</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="I17" s="2" t="s">
         <v>34</v>
@@ -3084,7 +3090,7 @@
         <v>104</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>27</v>
@@ -3096,13 +3102,13 @@
         <v>10</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="G18" s="2">
         <v>301000</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="I18" s="2" t="s">
         <v>34</v>
@@ -3138,13 +3144,13 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E1" s="1">
         <v>60.36</v>
@@ -3153,7 +3159,7 @@
         <v>24.11</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="H1" s="1">
         <v>43312.03</v>
@@ -3164,13 +3170,13 @@
         <v>114</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E2" s="2">
         <v>60.36</v>
@@ -3179,7 +3185,7 @@
         <v>24.11</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="H2" s="2">
         <v>43312.03</v>
@@ -3190,13 +3196,13 @@
         <v>115</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E3" s="2">
         <v>8.06</v>
@@ -3205,7 +3211,7 @@
         <v>127.29</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="H3" s="2">
         <v>30534.54</v>
@@ -3216,13 +3222,13 @@
         <v>116</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E4" s="2">
         <v>85.83</v>
@@ -3231,7 +3237,7 @@
         <v>11.77</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="H4" s="2">
         <v>40732.03</v>
@@ -3242,13 +3248,13 @@
         <v>117</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E5" s="2">
         <v>220.44</v>
@@ -3257,7 +3263,7 @@
         <v>33.38</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="H5" s="2">
         <v>221490.47</v>
@@ -3268,13 +3274,13 @@
         <v>118</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E6" s="2">
         <v>368.49</v>
@@ -3283,7 +3289,7 @@
         <v>22.2</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="H6" s="2">
         <v>246237.73</v>
@@ -3294,13 +3300,13 @@
         <v>119</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E7" s="2">
         <v>439.67</v>
@@ -3309,7 +3315,7 @@
         <v>17.43</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="H7" s="2">
         <v>230670.31</v>
@@ -3330,10 +3336,10 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>27</v>
@@ -3344,10 +3350,10 @@
         <v>134</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>27</v>
@@ -3358,10 +3364,10 @@
         <v>135</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>27</v>
@@ -3372,10 +3378,10 @@
         <v>136</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>27</v>
@@ -3386,10 +3392,10 @@
         <v>137</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>26</v>

--- a/legislator/property/output/normal/吳育昇_2013-11-22_財產申報表_tmp88481.xlsx
+++ b/legislator/property/output/normal/吳育昇_2013-11-22_財產申報表_tmp88481.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="648" uniqueCount="123">
   <si>
     <t>name</t>
   </si>
@@ -194,51 +194,63 @@
     <t>car</t>
   </si>
   <si>
+    <t>currency</t>
+  </si>
+  <si>
     <t>新臺幣</t>
   </si>
   <si>
+    <t>cash</t>
+  </si>
+  <si>
+    <t>bank</t>
+  </si>
+  <si>
+    <t>deposit_type</t>
+  </si>
+  <si>
     <t>台北富邦商業銀行信義分行</t>
   </si>
   <si>
+    <t>台新國際商業銀行</t>
+  </si>
+  <si>
+    <t>彰化商業銀行</t>
+  </si>
+  <si>
+    <t>華南商業銀行</t>
+  </si>
+  <si>
+    <t>臺灣土地銀行</t>
+  </si>
+  <si>
+    <t>中華商業銀行</t>
+  </si>
+  <si>
+    <t>臺灣銀行仁愛分行</t>
+  </si>
+  <si>
+    <t>中華郵政股份有限公司</t>
+  </si>
+  <si>
+    <t>臺灣土地銀行萬華分行</t>
+  </si>
+  <si>
+    <t>國泰世華商業銀行</t>
+  </si>
+  <si>
+    <t>台北富邦商業銀行</t>
+  </si>
+  <si>
+    <t>臺灣銀行</t>
+  </si>
+  <si>
+    <t>安泰商業銀行</t>
+  </si>
+  <si>
     <t>活期存款</t>
   </si>
   <si>
-    <t>台新國際商業銀行</t>
-  </si>
-  <si>
-    <t>彰化商業銀行</t>
-  </si>
-  <si>
-    <t>華南商業銀行</t>
-  </si>
-  <si>
-    <t>臺灣土地銀行</t>
-  </si>
-  <si>
-    <t>中華商業銀行</t>
-  </si>
-  <si>
-    <t>臺灣銀行仁愛分行</t>
-  </si>
-  <si>
-    <t>中華郵政股份有限公司</t>
-  </si>
-  <si>
-    <t>臺灣土地銀行萬華分行</t>
-  </si>
-  <si>
-    <t>國泰世華商業銀行</t>
-  </si>
-  <si>
-    <t>台北富邦商業銀行</t>
-  </si>
-  <si>
-    <t>臺灣銀行</t>
-  </si>
-  <si>
-    <t>安泰商業銀行</t>
-  </si>
-  <si>
     <t>綜合存款</t>
   </si>
   <si>
@@ -260,13 +272,13 @@
     <t>吳〇庭</t>
   </si>
   <si>
+    <t>deposit</t>
+  </si>
+  <si>
     <t>quantity</t>
   </si>
   <si>
     <t>face_value</t>
-  </si>
-  <si>
-    <t>currency</t>
   </si>
   <si>
     <t>南亞塑膠工業股份有限公司</t>
@@ -1852,29 +1864,50 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>57</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D1" s="1">
-        <v>80000</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1">
         <v>54</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>26</v>
@@ -1882,19 +1915,61 @@
       <c r="D2" s="2">
         <v>80000</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I2" s="2">
+        <v>1322</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K2" s="2">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="1">
         <v>55</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D3" s="2">
         <v>70000</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I3" s="2">
+        <v>1322</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K3" s="2">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -1904,41 +1979,62 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:M21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:13">
       <c r="B1" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>57</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F1" s="1">
-        <v>948646</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>60</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>58</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>57</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>27</v>
@@ -1946,19 +2042,40 @@
       <c r="F2" s="2">
         <v>948646</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="G2" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K2" s="2">
+        <v>1322</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="M2" s="2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>61</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>27</v>
@@ -1966,19 +2083,40 @@
       <c r="F3" s="2">
         <v>678659</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="G3" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K3" s="2">
+        <v>1322</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="M3" s="2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>62</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>27</v>
@@ -1986,39 +2124,81 @@
       <c r="F4" s="2">
         <v>50</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="G4" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K4" s="2">
+        <v>1322</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="M4" s="2">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>64</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="F5" s="2">
         <v>155822</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K5" s="2">
+        <v>1322</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="M5" s="2">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>65</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>27</v>
@@ -2026,39 +2206,81 @@
       <c r="F6" s="2">
         <v>38</v>
       </c>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="G6" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K6" s="2">
+        <v>1322</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="M6" s="2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>66</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="F7" s="2">
         <v>22912</v>
       </c>
-    </row>
-    <row r="8" spans="1:6">
+      <c r="G7" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K7" s="2">
+        <v>1322</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="M7" s="2">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>67</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>26</v>
@@ -2066,19 +2288,40 @@
       <c r="F8" s="2">
         <v>921</v>
       </c>
-    </row>
-    <row r="9" spans="1:6">
+      <c r="G8" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K8" s="2">
+        <v>1322</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="M8" s="2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>68</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>26</v>
@@ -2086,59 +2329,122 @@
       <c r="F9" s="2">
         <v>201256</v>
       </c>
-    </row>
-    <row r="10" spans="1:6">
+      <c r="G9" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K9" s="2">
+        <v>1322</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="M9" s="2">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>69</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="F10" s="2">
         <v>895275</v>
       </c>
-    </row>
-    <row r="11" spans="1:6">
+      <c r="G10" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K10" s="2">
+        <v>1322</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="M10" s="2">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>70</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="F11" s="2">
         <v>755357</v>
       </c>
-    </row>
-    <row r="12" spans="1:6">
+      <c r="G11" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K11" s="2">
+        <v>1322</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="M11" s="2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>71</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>27</v>
@@ -2146,19 +2452,40 @@
       <c r="F12" s="2">
         <v>281</v>
       </c>
-    </row>
-    <row r="13" spans="1:6">
+      <c r="G12" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K12" s="2">
+        <v>1322</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="M12" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>72</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>26</v>
@@ -2166,19 +2493,40 @@
       <c r="F13" s="2">
         <v>281172</v>
       </c>
-    </row>
-    <row r="14" spans="1:6">
+      <c r="G13" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K13" s="2">
+        <v>1322</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="M13" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>73</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>27</v>
@@ -2186,19 +2534,40 @@
       <c r="F14" s="2">
         <v>76668</v>
       </c>
-    </row>
-    <row r="15" spans="1:6">
+      <c r="G14" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K14" s="2">
+        <v>1322</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="M14" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>74</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>26</v>
@@ -2206,19 +2575,40 @@
       <c r="F15" s="2">
         <v>80099</v>
       </c>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="G15" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K15" s="2">
+        <v>1322</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="M15" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>75</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>26</v>
@@ -2226,19 +2616,40 @@
       <c r="F16" s="2">
         <v>54</v>
       </c>
-    </row>
-    <row r="17" spans="1:6">
+      <c r="G16" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K16" s="2">
+        <v>1322</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="M16" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>76</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>26</v>
@@ -2246,19 +2657,40 @@
       <c r="F17" s="2">
         <v>2318616</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="G17" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K17" s="2">
+        <v>1322</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="M17" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>77</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>27</v>
@@ -2266,39 +2698,81 @@
       <c r="F18" s="2">
         <v>770841</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="G18" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K18" s="2">
+        <v>1322</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="M18" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>78</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="F19" s="2">
         <v>20749</v>
       </c>
-    </row>
-    <row r="20" spans="1:6">
+      <c r="G19" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K19" s="2">
+        <v>1322</v>
+      </c>
+      <c r="L19" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="M19" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>79</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>27</v>
@@ -2306,25 +2780,67 @@
       <c r="F20" s="2">
         <v>394256</v>
       </c>
-    </row>
-    <row r="21" spans="1:6">
+      <c r="G20" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K20" s="2">
+        <v>1322</v>
+      </c>
+      <c r="L20" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="M20" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>80</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>27</v>
       </c>
       <c r="F21" s="2">
         <v>1000000</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K21" s="2">
+        <v>1322</v>
+      </c>
+      <c r="L21" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="M21" s="2">
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -2348,13 +2864,13 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>81</v>
+        <v>57</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>15</v>
@@ -2386,7 +2902,7 @@
         <v>87</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>27</v>
@@ -2398,13 +2914,13 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G2" s="2">
         <v>84080</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>34</v>
@@ -2430,7 +2946,7 @@
         <v>88</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>27</v>
@@ -2442,13 +2958,13 @@
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G3" s="2">
         <v>1980</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>34</v>
@@ -2474,7 +2990,7 @@
         <v>89</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>27</v>
@@ -2486,13 +3002,13 @@
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G4" s="2">
         <v>210550</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>34</v>
@@ -2518,7 +3034,7 @@
         <v>90</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>27</v>
@@ -2530,13 +3046,13 @@
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G5" s="2">
         <v>269240</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>34</v>
@@ -2562,7 +3078,7 @@
         <v>91</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>27</v>
@@ -2574,13 +3090,13 @@
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G6" s="2">
         <v>61880</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>34</v>
@@ -2606,7 +3122,7 @@
         <v>92</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>27</v>
@@ -2618,13 +3134,13 @@
         <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G7" s="2">
         <v>5730</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>34</v>
@@ -2650,7 +3166,7 @@
         <v>93</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>27</v>
@@ -2662,13 +3178,13 @@
         <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G8" s="2">
         <v>3310</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>34</v>
@@ -2694,7 +3210,7 @@
         <v>94</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>27</v>
@@ -2706,13 +3222,13 @@
         <v>10</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G9" s="2">
         <v>14530</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="I9" s="2" t="s">
         <v>34</v>
@@ -2738,7 +3254,7 @@
         <v>96</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>27</v>
@@ -2750,13 +3266,13 @@
         <v>10</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G10" s="2">
         <v>46860</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>34</v>
@@ -2782,7 +3298,7 @@
         <v>97</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>27</v>
@@ -2794,13 +3310,13 @@
         <v>10</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G11" s="2">
         <v>690</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="I11" s="2" t="s">
         <v>34</v>
@@ -2826,10 +3342,10 @@
         <v>98</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="D12" s="2">
         <v>9435</v>
@@ -2838,13 +3354,13 @@
         <v>10</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G12" s="2">
         <v>94350</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="I12" s="2" t="s">
         <v>34</v>
@@ -2870,7 +3386,7 @@
         <v>99</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>27</v>
@@ -2882,13 +3398,13 @@
         <v>10</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G13" s="2">
         <v>9250</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="I13" s="2" t="s">
         <v>34</v>
@@ -2914,7 +3430,7 @@
         <v>100</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>26</v>
@@ -2926,13 +3442,13 @@
         <v>10</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G14" s="2">
         <v>520</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="I14" s="2" t="s">
         <v>34</v>
@@ -2958,7 +3474,7 @@
         <v>101</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>27</v>
@@ -2970,13 +3486,13 @@
         <v>10</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G15" s="2">
         <v>1000000</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="I15" s="2" t="s">
         <v>34</v>
@@ -3002,25 +3518,25 @@
         <v>102</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E16" s="2">
         <v>10</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G16" s="2">
         <v>50000</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="I16" s="2" t="s">
         <v>34</v>
@@ -3046,7 +3562,7 @@
         <v>103</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>27</v>
@@ -3058,13 +3574,13 @@
         <v>10</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G17" s="2">
         <v>50000</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="I17" s="2" t="s">
         <v>34</v>
@@ -3090,7 +3606,7 @@
         <v>104</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>27</v>
@@ -3102,13 +3618,13 @@
         <v>10</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G18" s="2">
         <v>301000</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="I18" s="2" t="s">
         <v>34</v>
@@ -3144,13 +3660,13 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="E1" s="1">
         <v>60.36</v>
@@ -3159,7 +3675,7 @@
         <v>24.11</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="H1" s="1">
         <v>43312.03</v>
@@ -3170,13 +3686,13 @@
         <v>114</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="E2" s="2">
         <v>60.36</v>
@@ -3185,7 +3701,7 @@
         <v>24.11</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="H2" s="2">
         <v>43312.03</v>
@@ -3196,13 +3712,13 @@
         <v>115</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="E3" s="2">
         <v>8.06</v>
@@ -3211,7 +3727,7 @@
         <v>127.29</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="H3" s="2">
         <v>30534.54</v>
@@ -3222,13 +3738,13 @@
         <v>116</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="E4" s="2">
         <v>85.83</v>
@@ -3237,7 +3753,7 @@
         <v>11.77</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="H4" s="2">
         <v>40732.03</v>
@@ -3248,13 +3764,13 @@
         <v>117</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E5" s="2">
         <v>220.44</v>
@@ -3263,7 +3779,7 @@
         <v>33.38</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="H5" s="2">
         <v>221490.47</v>
@@ -3274,13 +3790,13 @@
         <v>118</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E6" s="2">
         <v>368.49</v>
@@ -3289,7 +3805,7 @@
         <v>22.2</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="H6" s="2">
         <v>246237.73</v>
@@ -3300,13 +3816,13 @@
         <v>119</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E7" s="2">
         <v>439.67</v>
@@ -3315,7 +3831,7 @@
         <v>17.43</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="H7" s="2">
         <v>230670.31</v>
@@ -3336,10 +3852,10 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>27</v>
@@ -3350,10 +3866,10 @@
         <v>134</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>27</v>
@@ -3364,10 +3880,10 @@
         <v>135</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>27</v>
@@ -3378,10 +3894,10 @@
         <v>136</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>27</v>
@@ -3392,10 +3908,10 @@
         <v>137</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>26</v>

--- a/legislator/property/output/normal/吳育昇_2013-11-22_財產申報表_tmp88481.xlsx
+++ b/legislator/property/output/normal/吳育昇_2013-11-22_財產申報表_tmp88481.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="648" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="688" uniqueCount="125">
   <si>
     <t>name</t>
   </si>
@@ -341,34 +341,40 @@
     <t>stock</t>
   </si>
   <si>
+    <t>dealer</t>
+  </si>
+  <si>
     <t>施羅德新興亞洲</t>
   </si>
   <si>
+    <t>貝萊德新興歐洲</t>
+  </si>
+  <si>
+    <t>富達歐洲</t>
+  </si>
+  <si>
+    <t>富蘭克林坦伯頓亞洲成長</t>
+  </si>
+  <si>
+    <t>富蘭克林坦伯頓生技領航</t>
+  </si>
+  <si>
+    <t>富蘭克林美國中小型公司增長</t>
+  </si>
+  <si>
+    <t>吳◦庭</t>
+  </si>
+  <si>
+    <t>吳◦學</t>
+  </si>
+  <si>
     <t>美金</t>
   </si>
   <si>
-    <t>貝萊德新興歐洲</t>
-  </si>
-  <si>
-    <t>富達歐洲</t>
-  </si>
-  <si>
-    <t>富蘭克林坦伯頓亞洲成長</t>
-  </si>
-  <si>
-    <t>富蘭克林坦伯頓生技領航</t>
-  </si>
-  <si>
-    <t>富蘭克林美國中小型公司增長</t>
-  </si>
-  <si>
-    <t>吳◦庭</t>
-  </si>
-  <si>
-    <t>吳◦學</t>
-  </si>
-  <si>
     <t>歐元</t>
+  </si>
+  <si>
+    <t>fund</t>
   </si>
   <si>
     <t>大都會國際人壽</t>
@@ -3652,41 +3658,62 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:O7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:15">
       <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="E1" s="1">
-        <v>60.36</v>
-      </c>
-      <c r="F1" s="1">
-        <v>24.11</v>
+      <c r="E1" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>85</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="H1" s="1">
-        <v>43312.03</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
+        <v>57</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>114</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>82</v>
@@ -3701,13 +3728,34 @@
         <v>24.11</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="H2" s="2">
         <v>43312.03</v>
       </c>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="I2" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M2" s="2">
+        <v>1322</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="O2" s="2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>115</v>
       </c>
@@ -3727,13 +3775,34 @@
         <v>127.29</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="H3" s="2">
         <v>30534.54</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="I3" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M3" s="2">
+        <v>1322</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="O3" s="2">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>116</v>
       </c>
@@ -3753,13 +3822,34 @@
         <v>11.77</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H4" s="2">
         <v>40732.03</v>
       </c>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="I4" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M4" s="2">
+        <v>1322</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="O4" s="2">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>117</v>
       </c>
@@ -3779,13 +3869,34 @@
         <v>33.38</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="H5" s="2">
         <v>221490.47</v>
       </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="I5" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M5" s="2">
+        <v>1322</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="O5" s="2">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>118</v>
       </c>
@@ -3805,13 +3916,34 @@
         <v>22.2</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="H6" s="2">
         <v>246237.73</v>
       </c>
-    </row>
-    <row r="7" spans="1:8">
+      <c r="I6" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M6" s="2">
+        <v>1322</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="O6" s="2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>119</v>
       </c>
@@ -3831,10 +3963,31 @@
         <v>17.43</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="H7" s="2">
         <v>230670.31</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M7" s="2">
+        <v>1322</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="O7" s="2">
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -3852,10 +4005,10 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>27</v>
@@ -3866,10 +4019,10 @@
         <v>134</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>27</v>
@@ -3880,10 +4033,10 @@
         <v>135</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>27</v>
@@ -3894,10 +4047,10 @@
         <v>136</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>27</v>
@@ -3908,10 +4061,10 @@
         <v>137</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>26</v>

--- a/legislator/property/output/normal/吳育昇_2013-11-22_財產申報表_tmp88481.xlsx
+++ b/legislator/property/output/normal/吳育昇_2013-11-22_財產申報表_tmp88481.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="688" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="715" uniqueCount="127">
   <si>
     <t>name</t>
   </si>
@@ -377,18 +377,21 @@
     <t>fund</t>
   </si>
   <si>
+    <t>company</t>
+  </si>
+  <si>
     <t>大都會國際人壽</t>
   </si>
   <si>
+    <t>富邦人壽</t>
+  </si>
+  <si>
+    <t>南山人壽</t>
+  </si>
+  <si>
     <t>大都會終身壽險</t>
   </si>
   <si>
-    <t>富邦人壽</t>
-  </si>
-  <si>
-    <t>南山人壽</t>
-  </si>
-  <si>
     <t>富邦人壽子女儲蓄保險</t>
   </si>
   <si>
@@ -396,6 +399,9 @@
   </si>
   <si>
     <t>南山康寧終身壽險</t>
+  </si>
+  <si>
+    <t>insurance</t>
   </si>
 </sst>
 </file>
@@ -3997,38 +4003,80 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>118</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>119</v>
+        <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1">
         <v>134</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I2" s="2">
+        <v>1322</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K2" s="2">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="1">
         <v>135</v>
       </c>
@@ -4036,13 +4084,34 @@
         <v>120</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I3" s="2">
+        <v>1322</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K3" s="2">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="1">
         <v>136</v>
       </c>
@@ -4050,13 +4119,34 @@
         <v>121</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I4" s="2">
+        <v>1322</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K4" s="2">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="1">
         <v>137</v>
       </c>
@@ -4064,10 +4154,31 @@
         <v>121</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>26</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I5" s="2">
+        <v>1322</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K5" s="2">
+        <v>137</v>
       </c>
     </row>
   </sheetData>
